--- a/nse/zdata/analyze.xlsx
+++ b/nse/zdata/analyze.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
   <si>
     <t>ask</t>
   </si>
@@ -89,7 +89,7 @@
     <t>undPrice</t>
   </si>
   <si>
-    <t>Ticker(contract=Option(conId=343247740, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424500PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 20, 11, 2, 22, 604758, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+    <t>Ticker(contract=Option(conId=343247734, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24400.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424400PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 689864, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
   </si>
   <si>
     <t>P</t>
@@ -98,283 +98,241 @@
     <t>BANKNIFTY</t>
   </si>
   <si>
-    <t>Ticker(contract=Option(conId=343247821, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425500PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 20, 11, 2, 22, 606753, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343247830, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425600PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 20, 11, 2, 22, 606753, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.1, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339362240, symbol='ADANIPORT', lastTradeDateOrContractMonth='20190131', strike=350.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='ADANIPORTS19JAN350PE', tradingClass='ADANIPORTS'), time=datetime.datetime(2019, 1, 20, 5, 26, 24, 22820, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.65, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+    <t>Ticker(contract=Option(conId=343247740, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424500PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 684877, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.4, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247750, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424600PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 657950, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247756, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24700.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424700PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 688867, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247767, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24800.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424800PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 685874, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.95, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247773, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=24900.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912424900PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 686873, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.3, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247780, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25000.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425000PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 661939, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247790, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25100.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425100PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 678895, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247797, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25200.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425200PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 689864, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247807, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25300.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425300PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 673907, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247815, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25400.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425400PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 675902, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247821, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425500PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 692856, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247830, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425600PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 683880, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.65, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247836, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25700.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425700PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 692856, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343247845, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190124', strike=25800.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY1912425800PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 663934, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.95, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339376506, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190131', strike=25800.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY19JAN25800PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 29, 664931, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=19.85, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339360018, symbol='FEDERALBN', lastTradeDateOrContractMonth='20190131', strike=75.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='FEDERALBNK19JAN75PE', tradingClass='FEDERALBNK'), time=datetime.datetime(2019, 1, 21, 16, 52, 14, 80892, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=0.05, lastSize=14000, close=0.1, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>FEDERALBN</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339379106, symbol='HDFC', lastTradeDateOrContractMonth='20190131', strike=1840.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19JAN1840PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 21, 16, 59, 45, 121835, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=1.5, lastSize=500, close=3.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>HDFC</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339358627, symbol='IGL', lastTradeDateOrContractMonth='20190131', strike=255.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='IGL19JAN255PE', tradingClass='IGL'), time=datetime.datetime(2019, 1, 21, 17, 9, 46, 971465, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.39240618414149714, delta=-0.028093736368843936, optPrice=0.20251712494765683, pvDividend=0.0, gamma=0.003508363172264621, vega=0.030153002244812366, theta=-0.05950368353041242, undPrice=287.05))</t>
+  </si>
+  <si>
+    <t>IGL</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339381552, symbol='NIFTY50', lastTradeDateOrContractMonth='20190131', strike=10350.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19JAN10350PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 2, 26, 504236, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=8.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>NIFTY50</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339374171, symbol='RBLBANK', lastTradeDateOrContractMonth='20190131', strike=500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='RBLBANK19JAN500PE', tradingClass='RBLBANK'), time=datetime.datetime(2019, 1, 21, 17, 48, 38, 886577, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>RBLBANK</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339332195, symbol='RELIANCE', lastTradeDateOrContractMonth='20190131', strike=1020.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='RELIANCE19JAN1020PE', tradingClass='RELIANCE'), time=datetime.datetime(2019, 1, 21, 17, 50, 49, 985134, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=1.2, lastSize=500, close=1.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>RELIANCE</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339384402, symbol='SIEMENS', lastTradeDateOrContractMonth='20190131', strike=880.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='SIEMENS19JAN880PE', tradingClass='SIEMENS'), time=datetime.datetime(2019, 1, 21, 23, 38, 31, 803738, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.2786835524781961, delta=-9.138466577196525e-05, optPrice=0.0010205443654766695, pvDividend=6.9912706368873865, gamma=7.82065699293502e-06, vega=0.0006066103670716875, theta=-0.000879055572865224, undPrice=1044.8))</t>
+  </si>
+  <si>
+    <t>SIEMENS</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339362240, symbol='ADANIPORT', lastTradeDateOrContractMonth='20190131', strike=350.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='ADANIPORTS19JAN350PE', tradingClass='ADANIPORTS'), time=datetime.datetime(2019, 1, 21, 12, 10, 54, 29130, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=0.8, lastSize=2500, close=0.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
   </si>
   <si>
     <t>ADANIPORT</t>
   </si>
   <si>
-    <t>Ticker(contract=Option(conId=339336203, symbol='AMARAJABA', lastTradeDateOrContractMonth='20190131', strike=700.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='AMARAJABAT19JAN700PE', tradingClass='AMARAJABAT'), time=datetime.datetime(2019, 1, 20, 5, 28, 51, 193470, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>AMARAJABA</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339328859, symbol='APOLLOHOS', lastTradeDateOrContractMonth='20190131', strike=1200.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='APOLLOHOSP19JAN1200PE', tradingClass='APOLLOHOSP'), time=datetime.datetime(2019, 1, 20, 5, 30, 2, 207966, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.05, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.34827448814899686, delta=-0.021144530320445165, optPrice=0.6584686918340537, pvDividend=0.0, gamma=0.0006152500277779993, vega=0.12022466826417727, theta=-0.1819096396425027, undPrice=1352.95))</t>
-  </si>
-  <si>
-    <t>APOLLOHOS</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339369531, symbol='AXISBANK', lastTradeDateOrContractMonth='20190131', strike=600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='AXISBANK19JAN600PE', tradingClass='AXISBANK'), time=datetime.datetime(2019, 1, 20, 5, 33, 48, 164732, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.25, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.3804077401022826, delta=-0.030837790613875704, optPrice=0.5531414620304712, pvDividend=0.0, gamma=0.001544899906890049, vega=0.08245686340887025, theta=-0.1363999107525921, undPrice=676.6500000000001))</t>
-  </si>
-  <si>
-    <t>AXISBANK</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339363409, symbol='BIOCON', lastTradeDateOrContractMonth='20190131', strike=600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19JAN600PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 20, 5, 42, 48, 162513, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.35570747341750714, delta=-0.06215877398294822, optPrice=1.1294902251101995, pvDividend=0.0, gamma=0.002991253559985, vega=0.1409425214258658, theta=-0.21674789665021035, undPrice=657.6500000000001))</t>
+    <t>Ticker(contract=Option(conId=339363392, symbol='BIOCON', lastTradeDateOrContractMonth='20190131', strike=580.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19JAN580PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 21, 12, 27, 44, 248251, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=1.0, lastSize=900, close=1.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
   </si>
   <si>
     <t>BIOCON</t>
   </si>
   <si>
-    <t>Ticker(contract=Option(conId=339363419, symbol='BIOCON', lastTradeDateOrContractMonth='20190131', strike=610.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19JAN610PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 20, 5, 42, 48, 160518, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.35568000320924914, delta=-0.10178122108672982, optPrice=2.0322539726891433, pvDividend=0.0, gamma=0.004342661099023494, vega=0.20460262721057834, theta=-0.3131985241979342, undPrice=657.6500000000001))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339360003, symbol='FEDERALBN', lastTradeDateOrContractMonth='20190131', strike=70.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='FEDERALBNK19JAN70PE', tradingClass='FEDERALBNK'), time=datetime.datetime(2019, 1, 20, 6, 5, 25, 197790, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.15, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>FEDERALBN</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339360009, symbol='FEDERALBN', lastTradeDateOrContractMonth='20190131', strike=72.5, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='FEDERALBNK19JAN72.5PE', tradingClass='FEDERALBNK'), time=datetime.datetime(2019, 1, 20, 6, 5, 25, 196793, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.25, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339360018, symbol='FEDERALBN', lastTradeDateOrContractMonth='20190131', strike=75.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='FEDERALBNK19JAN75PE', tradingClass='FEDERALBNK'), time=datetime.datetime(2019, 1, 20, 6, 5, 25, 198788, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.15, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339370875, symbol='GODFRYPHL', lastTradeDateOrContractMonth='20190131', strike=840.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GODFRYPHLP19JAN840PE', tradingClass='GODFRYPHLP'), time=datetime.datetime(2019, 1, 20, 6, 8, 12, 668, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.05, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.44263447128201394, delta=-0.032063354722974724, optPrice=0.9620558636553284, pvDividend=0.0, gamma=0.0009628820738320176, vega=0.12126738611297035, theta=-0.2347709575645374, undPrice=964.6))</t>
+    <t>Ticker(contract=Option(conId=339363409, symbol='BIOCON', lastTradeDateOrContractMonth='20190131', strike=600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19JAN600PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 21, 12, 27, 43, 241687, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=1.3, lastSize=900, close=2.3, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339363419, symbol='BIOCON', lastTradeDateOrContractMonth='20190131', strike=610.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19JAN610PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 21, 12, 27, 44, 249248, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=1.95, lastSize=900, close=3.85, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=339382592, symbol='CANBK', lastTradeDateOrContractMonth='20190131', strike=220.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='CANBK19JAN220PE', tradingClass='CANBK'), time=datetime.datetime(2019, 1, 21, 12, 30, 52, 199563, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.6047346606772829, delta=-0.02020247957293564, optPrice=0.2050189255787, pvDividend=0.0, gamma=0.0018299890992697048, vega=0.021548934587467303, theta=-0.06484362454888658, undPrice=268.0))</t>
+  </si>
+  <si>
+    <t>CANBK</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343974187, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190228', strike=25500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY19FEB25500PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 22, 0, 5, 30, 686200, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=99.1, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343997616, symbol='GLENMARK', lastTradeDateOrContractMonth='20190228', strike=560.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GLENMARK19FEB560PE', tradingClass='GLENMARK'), time=datetime.datetime(2019, 1, 21, 16, 53, 28, 896004, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.34177584412754386, delta=-0.06938034695185735, optPrice=2.287968801377277, pvDividend=0.0, gamma=0.0018658500272570665, vega=0.27885643582732156, theta=-0.11790135338072545, undPrice=650.5500000000001))</t>
+  </si>
+  <si>
+    <t>GLENMARK</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343991648, symbol='HDFC', lastTradeDateOrContractMonth='20190228', strike=1840.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19FEB1840PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 21, 16, 59, 57, 917003, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=12.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.2383771104002458, delta=-0.1068756481154719, optPrice=8.139340281205317, pvDividend=0.0, gamma=0.0011992219832582744, vega=1.1866094800152034, theta=-0.3354097752467742, undPrice=2004.45))</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347846782, symbol='HDFC', lastTradeDateOrContractMonth='20190228', strike=1850.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19FEB1850PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 21, 16, 59, 57, 918998, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=14.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.23679992443264483, delta=-0.11902440312458151, optPrice=9.21785712888716, pvDividend=0.0, gamma=0.00130365687220454, vega=1.2814112704357015, theta=-0.358160369266363, undPrice=2004.45))</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343953158, symbol='KOTAKBANK', lastTradeDateOrContractMonth='20190228', strike=1100.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='KOTAKBANK19FEB1100PE', tradingClass='KOTAKBANK'), time=datetime.datetime(2019, 1, 21, 17, 20, 55, 862485, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=8.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>KOTAKBANK</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343953164, symbol='KOTAKBANK', lastTradeDateOrContractMonth='20190228', strike=1120.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='KOTAKBANK19FEB1120PE', tradingClass='KOTAKBANK'), time=datetime.datetime(2019, 1, 21, 17, 20, 55, 857499, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=3.9, lastSize=800, close=8.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343973512, symbol='NIFTY50', lastTradeDateOrContractMonth='20190228', strike=10100.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19FEB10100PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 4, 5, 812175, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=41.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343973529, symbol='NIFTY50', lastTradeDateOrContractMonth='20190228', strike=10200.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19FEB10200PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 4, 5, 775274, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=50.9, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343973546, symbol='NIFTY50', lastTradeDateOrContractMonth='20190228', strike=10300.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19FEB10300PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 4, 5, 773279, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=64.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343994361, symbol='SBIN', lastTradeDateOrContractMonth='20190228', strike=260.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='SBIN19FEB260PE', tradingClass='SBIN'), time=datetime.datetime(2019, 1, 21, 23, 36, 56, 280202, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>SBIN</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343956356, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190228', strike=225.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19FEB225PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 21, 23, 51, 42, 816627, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>TORNTPOWE</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343956366, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190228', strike=230.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19FEB230PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 21, 23, 51, 42, 804657, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.4, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343957358, symbol='WIPRO', lastTradeDateOrContractMonth='20190228', strike=290.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19FEB290PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 21, 23, 58, 50, 712321, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>WIPRO</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343966255, symbol='ADANIPORT', lastTradeDateOrContractMonth='20190228', strike=355.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='ADANIPORTS19FEB355PE', tradingClass='ADANIPORTS'), time=datetime.datetime(2019, 1, 21, 12, 10, 55, 161104, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343944141, symbol='BIOCON', lastTradeDateOrContractMonth='20190228', strike=600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19FEB600PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 21, 12, 27, 43, 246674, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.95, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=343944150, symbol='BIOCON', lastTradeDateOrContractMonth='20190228', strike=610.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19FEB610PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 21, 12, 27, 43, 244679, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, last=5.9, lastSize=900, close=5.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347826837, symbol='FEDERALBN', lastTradeDateOrContractMonth='20190328', strike=75.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='FEDERALBNK19MAR75PE', tradingClass='FEDERALBNK'), time=datetime.datetime(2019, 1, 21, 16, 52, 12, 29659, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.95, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347828711, symbol='GLENMARK', lastTradeDateOrContractMonth='20190328', strike=560.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GLENMARK19MAR560PE', tradingClass='GLENMARK'), time=datetime.datetime(2019, 1, 21, 16, 53, 28, 917942, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=7.8, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.3417830885123228, delta=-0.11758613923900285, optPrice=5.790408804611959, pvDividend=0.0, gamma=0.0020901262299820424, vega=0.544307848919095, theta=-0.12682073847585687, undPrice=650.5500000000001))</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347837092, symbol='GODFRYPHL', lastTradeDateOrContractMonth='20190328', strike=780.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GODFRYPHLP19MAR780PE', tradingClass='GODFRYPHLP'), time=datetime.datetime(2019, 1, 21, 16, 54, 53, 45126, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=11.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.4703390368905303, delta=-0.11903470885120693, optPrice=12.189604779285668, pvDividend=0.0, gamma=0.0010422221224913124, vega=0.807077395643926, theta=-0.2662744001575133, undPrice=956.3000000000001))</t>
   </si>
   <si>
     <t>GODFRYPHL</t>
   </si>
   <si>
-    <t>Ticker(contract=Option(conId=339371043, symbol='HCLTECH', lastTradeDateOrContractMonth='20190131', strike=860.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HCLTECH19JAN860PE', tradingClass='HCLTECH'), time=datetime.datetime(2019, 1, 20, 6, 17, 47, 75824, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>HCLTECH</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339379112, symbol='HDFC', lastTradeDateOrContractMonth='20190131', strike=1860.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19JAN1860PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 20, 6, 18, 50, 41245, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>HDFC</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339371698, symbol='IDBI', lastTradeDateOrContractMonth='20190131', strike=50.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='IDBI19JAN50PE', tradingClass='IDBI'), time=datetime.datetime(2019, 1, 20, 6, 25, 27, 156516, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.1, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.5122029978908754, delta=-0.0127677412941829, optPrice=0.024860370373088487, pvDividend=0.0, gamma=0.006065246415447041, vega=0.0034963767738076237, theta=-0.007888740460045417, undPrice=60.7))</t>
-  </si>
-  <si>
-    <t>IDBI</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=347853996, symbol='IDBI', lastTradeDateOrContractMonth='20190131', strike=51.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='IDBI19JAN51PE', tradingClass='IDBI'), time=datetime.datetime(2019, 1, 20, 6, 25, 27, 95679, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.1, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.46035304860017995, delta=-0.012905825747479671, optPrice=0.02254653217593464, pvDividend=0.0, gamma=0.0068114634798386925, vega=0.003529060605696923, theta=-0.007142129638052309, undPrice=60.7))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339386552, symbol='JUSTDIAL', lastTradeDateOrContractMonth='20190131', strike=400.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='JUSTDIAL19JAN400PE', tradingClass='JUSTDIAL'), time=datetime.datetime(2019, 1, 20, 6, 38, 39, 43146, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>JUSTDIAL</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339344873, symbol='LT', lastTradeDateOrContractMonth='20190131', strike=1240.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='LT19JAN1240PE', tradingClass='LT'), time=datetime.datetime(2019, 1, 20, 10, 4, 3, 767390, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339341649, symbol='MUTHOOTFI', lastTradeDateOrContractMonth='20190131', strike=470.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='MUTHOOTFIN19JAN470PE', tradingClass='MUTHOOTFIN'), time=datetime.datetime(2019, 1, 20, 10, 13, 58, 848357, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>MUTHOOTFI</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339368706, symbol='NHPC', lastTradeDateOrContractMonth='20190131', strike=14.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NHPC19JAN14PE', tradingClass='NHPC'), time=datetime.datetime(2019, 1, 20, 10, 16, 43, 733460, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.05, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>NHPC</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339381547, symbol='NIFTY50', lastTradeDateOrContractMonth='20190131', strike=10300.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19JAN10300PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 20, 10, 59, 58, 773882, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=10.75, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>NIFTY50</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339331833, symbol='POWERGRID', lastTradeDateOrContractMonth='20190131', strike=180.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='POWERGRID19JAN180PE', tradingClass='POWERGRID'), time=datetime.datetime(2019, 1, 20, 10, 26, 8, 676683, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>POWERGRID</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339341873, symbol='PVR', lastTradeDateOrContractMonth='20190131', strike=1450.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='PVR19JAN1450PE', tradingClass='PVR'), time=datetime.datetime(2019, 1, 20, 10, 27, 18, 585130, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>PVR</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339378096, symbol='SHREECEM', lastTradeDateOrContractMonth='20190131', strike=14500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='SHREECEM19JAN14500PE', tradingClass='SHREECEM'), time=datetime.datetime(2019, 1, 20, 10, 35, 33, 551538, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=28.3, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>SHREECEM</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=339380499, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190131', strike=235.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19JAN235PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 20, 10, 49, 10, 770084, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>TORNTPOWE</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=348171749, symbol='UNIONBANK', lastTradeDateOrContractMonth='20190131', strike=72.5, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='UNIONBANK19JAN72.5PE', tradingClass='UNIONBANK'), time=datetime.datetime(2019, 1, 20, 10, 52, 48, 707847, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.3, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>UNIONBANK</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343966245, symbol='ADANIPORT', lastTradeDateOrContractMonth='20190228', strike=350.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='ADANIPORTS19FEB350PE', tradingClass='ADANIPORTS'), time=datetime.datetime(2019, 1, 20, 5, 26, 24, 24814, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343996019, symbol='AXISBANK', lastTradeDateOrContractMonth='20190228', strike=600.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='AXISBANK19FEB600PE', tradingClass='AXISBANK'), time=datetime.datetime(2019, 1, 20, 5, 33, 48, 165729, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=4.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.31506876053922245, delta=-0.09959112626547562, optPrice=3.4374400840409014, pvDividend=0.0, gamma=0.0025048932079183373, vega=0.38792822612311034, theta=-0.14332906656533312, undPrice=676.6500000000001))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343974187, symbol='BANKNIFTY', lastTradeDateOrContractMonth='20190228', strike=25500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BANKNIFTY19FEB25500PE', tradingClass='BANKNIFTY'), time=datetime.datetime(2019, 1, 20, 11, 2, 34, 668148, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=90.1, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343980266, symbol='BHEL', lastTradeDateOrContractMonth='20190228', strike=55.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BHEL19FEB55PE', tradingClass='BHEL'), time=datetime.datetime(2019, 1, 20, 5, 42, 13, 222733, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>BHEL</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343944150, symbol='BIOCON', lastTradeDateOrContractMonth='20190228', strike=610.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='BIOCON19FEB610PE', tradingClass='BIOCON'), time=datetime.datetime(2019, 1, 20, 5, 42, 48, 159520, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=5.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.27003295204572203, delta=-0.16518817735714242, optPrice=5.31173174258638, pvDividend=0.0, gamma=0.004269614983690085, vega=0.5352473063330391, theta=-0.16413781138444378, undPrice=657.6500000000001))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343964245, symbol='CUMMINSIN', lastTradeDateOrContractMonth='20190228', strike=720.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='CUMMINSIND19FEB720PE', tradingClass='CUMMINSIND'), time=datetime.datetime(2019, 1, 20, 5, 54, 8, 274507, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=5.15, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>CUMMINSIN</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343964255, symbol='CUMMINSIN', lastTradeDateOrContractMonth='20190228', strike=740.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='CUMMINSIND19FEB740PE', tradingClass='CUMMINSIND'), time=datetime.datetime(2019, 1, 20, 5, 54, 8, 284479, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=7.95, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343973057, symbol='FEDERALBN', lastTradeDateOrContractMonth='20190228', strike=75.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='FEDERALBNK19FEB75PE', tradingClass='FEDERALBNK'), time=datetime.datetime(2019, 1, 20, 6, 5, 27, 204160, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343956078, symbol='GAIL', lastTradeDateOrContractMonth='20190228', strike=290.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GAIL19FEB290PE', tradingClass='GAIL'), time=datetime.datetime(2019, 1, 20, 6, 6, 6, 351686, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.25, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>GAIL</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343956085, symbol='GAIL', lastTradeDateOrContractMonth='20190228', strike=300.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GAIL19FEB300PE', tradingClass='GAIL'), time=datetime.datetime(2019, 1, 20, 6, 6, 6, 385596, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.4, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343990736, symbol='GMRINFRA', lastTradeDateOrContractMonth='20190228', strike=13.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GMRINFRA19FEB13PE', tradingClass='GMRINFRA'), time=datetime.datetime(2019, 1, 20, 6, 7, 34, 465574, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>GMRINFRA</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343960565, symbol='GODFRYPHL', lastTradeDateOrContractMonth='20190228', strike=820.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GODFRYPHLP19FEB820PE', tradingClass='GODFRYPHLP'), time=datetime.datetime(2019, 1, 20, 6, 8, 12, 26866, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=9.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.4384542691121802, delta=-0.10541785988671493, optPrice=7.434096433101652, pvDividend=0.0, gamma=0.0013163522490347189, vega=0.5761795103486682, theta=-0.3030906854814183, undPrice=964.6))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343960575, symbol='GODFRYPHL', lastTradeDateOrContractMonth='20190228', strike=840.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GODFRYPHLP19FEB840PE', tradingClass='GODFRYPHLP'), time=datetime.datetime(2019, 1, 20, 6, 8, 12, 56787, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=12.85, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.43890297660755784, delta=-0.13951065701587884, optPrice=10.510955297819358, pvDividend=0.0, gamma=0.001601203912633087, vega=0.7015789598950223, theta=-0.3672794268663709, undPrice=964.6))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343959878, symbol='HCLTECH', lastTradeDateOrContractMonth='20190228', strike=870.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HCLTECH19FEB870PE', tradingClass='HCLTECH'), time=datetime.datetime(2019, 1, 20, 6, 17, 46, 59722, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=6.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.27659920568582386, delta=-0.13035358272591768, optPrice=5.869123724414687, pvDividend=1.9992869372489217, gamma=0.0024556472459472873, vega=0.6613348092877395, theta=-0.2104031483194507, undPrice=954.7))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343991648, symbol='HDFC', lastTradeDateOrContractMonth='20190228', strike=1840.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19FEB1840PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 20, 6, 18, 35, 223927, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=14.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=347846782, symbol='HDFC', lastTradeDateOrContractMonth='20190228', strike=1850.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19FEB1850PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 20, 6, 18, 37, 237381, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=16.3, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343991658, symbol='HDFC', lastTradeDateOrContractMonth='20190228', strike=1860.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19FEB1860PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 20, 6, 18, 35, 223927, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=18.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343991665, symbol='HDFC', lastTradeDateOrContractMonth='20190228', strike=1880.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19FEB1880PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 20, 6, 18, 35, 224925, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=22.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343991955, symbol='HINDALCO', lastTradeDateOrContractMonth='20190228', strike=180.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HINDALCO19FEB180PE', tradingClass='HINDALCO'), time=datetime.datetime(2019, 1, 20, 6, 21, 10, 211921, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>HINDALCO</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343991961, symbol='HINDALCO', lastTradeDateOrContractMonth='20190228', strike=185.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HINDALCO19FEB185PE', tradingClass='HINDALCO'), time=datetime.datetime(2019, 1, 20, 6, 21, 10, 667115, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343970173, symbol='LT', lastTradeDateOrContractMonth='20190228', strike=1240.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='LT19FEB1240PE', tradingClass='LT'), time=datetime.datetime(2019, 1, 20, 10, 4, 2, 815131, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=17.25, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343955767, symbol='MFSL', lastTradeDateOrContractMonth='20190228', strike=380.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='MFSL19FEB380PE', tradingClass='MFSL'), time=datetime.datetime(2019, 1, 20, 10, 8, 50, 33953, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.05, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>MFSL</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343955773, symbol='MFSL', lastTradeDateOrContractMonth='20190228', strike=390.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='MFSL19FEB390PE', tradingClass='MFSL'), time=datetime.datetime(2019, 1, 20, 10, 8, 50, 46911, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=4.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343960263, symbol='MMFIN', lastTradeDateOrContractMonth='20190228', strike=390.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='M&amp;MFIN19FEB390PE', tradingClass='M&amp;MFIN'), time=datetime.datetime(2019, 1, 20, 10, 11, 35, 765793, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>MMFIN</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343998968, symbol='MUTHOOTFI', lastTradeDateOrContractMonth='20190228', strike=460.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='MUTHOOTFIN19FEB460PE', tradingClass='MUTHOOTFIN'), time=datetime.datetime(2019, 1, 20, 10, 13, 58, 795305, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=4.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343998977, symbol='MUTHOOTFI', lastTradeDateOrContractMonth='20190228', strike=470.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='MUTHOOTFIN19FEB470PE', tradingClass='MUTHOOTFIN'), time=datetime.datetime(2019, 1, 20, 10, 13, 58, 810459, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=5.95, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343973512, symbol='NIFTY50', lastTradeDateOrContractMonth='20190228', strike=10100.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19FEB10100PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 20, 11, 0, 16, 681671, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=40.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343973529, symbol='NIFTY50', lastTradeDateOrContractMonth='20190228', strike=10200.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19FEB10200PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 20, 11, 0, 16, 680668, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=50.5, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343973546, symbol='NIFTY50', lastTradeDateOrContractMonth='20190228', strike=10300.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19FEB10300PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 20, 11, 0, 16, 703607, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=63.0, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=344000377, symbol='PFC', lastTradeDateOrContractMonth='20190228', strike=87.5, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='PFC19FEB87.5PE', tradingClass='PFC'), time=datetime.datetime(2019, 1, 20, 10, 24, 13, 609440, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=0.85, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+    <t>Ticker(contract=Option(conId=347837102, symbol='GODFRYPHL', lastTradeDateOrContractMonth='20190328', strike=800.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='GODFRYPHLP19MAR800PE', tradingClass='GODFRYPHLP'), time=datetime.datetime(2019, 1, 21, 16, 54, 53, 45126, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=15.05, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.4703390368905303, delta=-0.14617908324499318, optPrice=15.744489019793765, pvDividend=0.0, gamma=0.0012007963946948376, vega=0.9298743578886216, theta=-0.3049373665313953, undPrice=956.3000000000001))</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347847005, symbol='HDFC', lastTradeDateOrContractMonth='20190328', strike=1850.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='HDFC19MAR1850PE', tradingClass='HDFC'), time=datetime.datetime(2019, 1, 21, 16, 59, 43, 97937, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=25.55, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347795525, symbol='KOTAKBANK', lastTradeDateOrContractMonth='20190328', strike=1100.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='KOTAKBANK19MAR1100PE', tradingClass='KOTAKBANK'), time=datetime.datetime(2019, 1, 21, 17, 20, 55, 866474, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=12.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347795535, symbol='KOTAKBANK', lastTradeDateOrContractMonth='20190328', strike=1120.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='KOTAKBANK19MAR1120PE', tradingClass='KOTAKBANK'), time=datetime.datetime(2019, 1, 21, 17, 20, 55, 862485, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=16.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=312427031, symbol='NIFTY50', lastTradeDateOrContractMonth='20190328', strike=10000.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19MAR10000PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 2, 18, 658219, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=73.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=312427037, symbol='NIFTY50', lastTradeDateOrContractMonth='20190328', strike=10100.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19MAR10100PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 2, 18, 661211, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=79.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=312427044, symbol='NIFTY50', lastTradeDateOrContractMonth='20190328', strike=10200.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19MAR10200PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 2, 30, 767834, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=91.45, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=312427054, symbol='NIFTY50', lastTradeDateOrContractMonth='20190328', strike=10300.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='NIFTY19MAR10300PE', tradingClass='NIFTY'), time=datetime.datetime(2019, 1, 22, 0, 2, 30, 748885, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=107.3, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347823855, symbol='PFC', lastTradeDateOrContractMonth='20190328', strike=85.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='PFC19MAR85PE', tradingClass='PFC'), time=datetime.datetime(2019, 1, 21, 17, 43, 44, 984580, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.15, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
   </si>
   <si>
     <t>PFC</t>
   </si>
   <si>
-    <t>Ticker(contract=Option(conId=343971176, symbol='SHREECEM', lastTradeDateOrContractMonth='20190228', strike=14250.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='SHREECEM19FEB14250PE', tradingClass='SHREECEM'), time=datetime.datetime(2019, 1, 20, 10, 35, 31, 557094, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=118.4, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.328919514676461, delta=-0.12582869809900699, optPrice=112.20880943027856, pvDividend=0.0, gamma=0.00012089868841169656, vega=10.755020623876442, theta=-4.161068164181889, undPrice=15914.7))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343971187, symbol='SHREECEM', lastTradeDateOrContractMonth='20190228', strike=14500.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='SHREECEM19FEB14500PE', tradingClass='SHREECEM'), time=datetime.datetime(2019, 1, 20, 10, 35, 31, 597985, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=161.15, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[], modelGreeks=OptionComputation(impliedVol=0.32850901000528687, delta=-0.16215967128973374, optPrice=153.73313959464397, pvDividend=0.0, gamma=0.0001436698177793627, vega=12.764765585365382, theta=-4.891871759336936, undPrice=15914.7))</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343956356, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190228', strike=225.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19FEB225PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 20, 10, 49, 10, 784047, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=1.65, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343956366, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190228', strike=230.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19FEB230PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 20, 10, 49, 10, 779061, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343956373, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190228', strike=235.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19FEB235PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 20, 10, 49, 10, 785044, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.2, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343957348, symbol='WIPRO', lastTradeDateOrContractMonth='20190228', strike=285.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19FEB285PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 20, 10, 55, 45, 655526, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.15, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>WIPRO</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343957358, symbol='WIPRO', lastTradeDateOrContractMonth='20190228', strike=290.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19FEB290PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 20, 10, 55, 45, 656522, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.8, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
-  </si>
-  <si>
-    <t>Ticker(contract=Option(conId=343957365, symbol='WIPRO', lastTradeDateOrContractMonth='20190228', strike=295.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19FEB295PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 20, 10, 55, 45, 701729, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+    <t>Ticker(contract=Option(conId=347813332, symbol='TECHM', lastTradeDateOrContractMonth='20190328', strike=640.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TECHM19MAR640PE', tradingClass='TECHM'), time=datetime.datetime(2019, 1, 21, 23, 49, 30, 616624, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=8.4, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>TECHM</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347813541, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190328', strike=220.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19MAR220PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 21, 23, 51, 42, 841559, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=2.7, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347813551, symbol='TORNTPOWE', lastTradeDateOrContractMonth='20190328', strike=230.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='TORNTPOWER19MAR230PE', tradingClass='TORNTPOWER'), time=datetime.datetime(2019, 1, 21, 23, 51, 42, 806652, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=4.65, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347805822, symbol='WIPRO', lastTradeDateOrContractMonth='20190328', strike=280.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19MAR280PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 21, 23, 58, 50, 699355, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=3.6, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347805828, symbol='WIPRO', lastTradeDateOrContractMonth='20190328', strike=285.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19MAR285PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 21, 23, 58, 50, 699355, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=4.4, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
+  </si>
+  <si>
+    <t>Ticker(contract=Option(conId=347805838, symbol='WIPRO', lastTradeDateOrContractMonth='20190328', strike=290.0, right='P', multiplier='1', exchange='NSE', currency='INR', localSymbol='WIPRO19MAR290PE', tradingClass='WIPRO'), time=datetime.datetime(2019, 1, 21, 23, 58, 50, 703345, tzinfo=datetime.timezone.utc), bid=-1.0, bidSize=0, ask=-1.0, askSize=0, close=5.35, ticks=[], tickByTicks=[], domBids=[], domAsks=[], domTicks=[])</t>
   </si>
 </sst>
 </file>
@@ -723,7 +681,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -810,7 +768,7 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>26187.05809128631</v>
+        <v>26182.375</v>
       </c>
       <c r="C2" t="n">
         <v>-1</v>
@@ -822,19 +780,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="I2" t="n">
         <v>28387</v>
       </c>
       <c r="J2" t="n">
-        <v>0.03597352165725403</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -846,7 +804,7 @@
         <v>20</v>
       </c>
       <c r="P2" t="n">
-        <v>55312.89</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q2" t="s">
         <v>24</v>
@@ -858,19 +816,19 @@
         <v>25</v>
       </c>
       <c r="T2" t="n">
-        <v>0.2505745044238332</v>
+        <v>0.4113125730534271</v>
       </c>
       <c r="U2" t="n">
-        <v>1093.239641924494</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V2" t="n">
-        <v>24500</v>
+        <v>24400</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="n">
-        <v>27529</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -878,7 +836,7 @@
         <v>-1</v>
       </c>
       <c r="B3" t="n">
-        <v>26187.05809128631</v>
+        <v>26182.375</v>
       </c>
       <c r="C3" t="n">
         <v>-1</v>
@@ -890,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.75</v>
+        <v>1.4</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>11.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I3" t="n">
         <v>28387</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03597352165725403</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -914,7 +872,7 @@
         <v>20</v>
       </c>
       <c r="P3" t="n">
-        <v>55312.89</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q3" t="s">
         <v>27</v>
@@ -926,19 +884,19 @@
         <v>25</v>
       </c>
       <c r="T3" t="n">
-        <v>0.2574083545444832</v>
+        <v>0.3951826682278025</v>
       </c>
       <c r="U3" t="n">
-        <v>1093.239641924494</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V3" t="n">
-        <v>25500</v>
+        <v>24500</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3" t="n">
-        <v>27529</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -946,7 +904,7 @@
         <v>-1</v>
       </c>
       <c r="B4" t="n">
-        <v>26187.05809128631</v>
+        <v>26182.375</v>
       </c>
       <c r="C4" t="n">
         <v>-1</v>
@@ -958,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>11.65</v>
+        <v>11.55</v>
       </c>
       <c r="I4" t="n">
         <v>28387</v>
       </c>
       <c r="J4" t="n">
-        <v>0.03597352165725403</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -982,7 +940,7 @@
         <v>20</v>
       </c>
       <c r="P4" t="n">
-        <v>55312.89</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q4" t="s">
         <v>28</v>
@@ -994,19 +952,19 @@
         <v>25</v>
       </c>
       <c r="T4" t="n">
-        <v>0.2653811796852416</v>
+        <v>0.46575100183991</v>
       </c>
       <c r="U4" t="n">
-        <v>1093.239641924494</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V4" t="n">
-        <v>25600</v>
+        <v>24600</v>
       </c>
       <c r="W4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="n">
-        <v>27529</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1014,67 +972,67 @@
         <v>-1</v>
       </c>
       <c r="B5" t="n">
-        <v>374.3672199170124</v>
+        <v>26182.375</v>
       </c>
       <c r="C5" t="n">
         <v>-1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999742054329672</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.65</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>11.55</v>
       </c>
       <c r="I5" t="n">
-        <v>452.2</v>
+        <v>28387</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1735806760769501</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
       <c r="M5" t="s"/>
       <c r="N5" t="n">
-        <v>294.1</v>
+        <v>23605.5</v>
       </c>
       <c r="O5" t="n">
-        <v>2500</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>173200</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
       </c>
       <c r="R5" t="n">
-        <v>0.9999742054329672</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
         <v>25</v>
       </c>
       <c r="T5" t="n">
-        <v>0.2645391559941214</v>
+        <v>0.46575100183991</v>
       </c>
       <c r="U5" t="n">
-        <v>26.62941475972411</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V5" t="n">
-        <v>350</v>
+        <v>24700</v>
       </c>
       <c r="W5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="X5" t="n">
-        <v>394.5</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1082,67 +1040,67 @@
         <v>-1</v>
       </c>
       <c r="B6" t="n">
-        <v>787.0634854771783</v>
+        <v>26182.375</v>
       </c>
       <c r="C6" t="n">
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999997914509795</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.55</v>
+        <v>2.95</v>
       </c>
       <c r="G6" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>1.95</v>
+        <v>11.5</v>
       </c>
       <c r="I6" t="n">
-        <v>908.45</v>
+        <v>28387</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1333150539262034</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
       <c r="M6" t="s"/>
       <c r="N6" t="n">
-        <v>683.1</v>
+        <v>23605.5</v>
       </c>
       <c r="O6" t="n">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>96463.5</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9999997914509795</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
         <v>25</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3241734862503339</v>
+        <v>0.463734763736707</v>
       </c>
       <c r="U6" t="n">
-        <v>44.39637913127186</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V6" t="n">
-        <v>700</v>
+        <v>24800</v>
       </c>
       <c r="W6" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="X6" t="n">
-        <v>785.2</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1150,73 +1108,67 @@
         <v>-1</v>
       </c>
       <c r="B7" t="n">
-        <v>1109.033402489626</v>
+        <v>26182.375</v>
       </c>
       <c r="C7" t="n">
         <v>-1</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9993049772734044</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="G7" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>2.6</v>
+        <v>10.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1372.9</v>
+        <v>28387</v>
       </c>
       <c r="J7" t="n">
-        <v>0.220908134759035</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.02114453032044517</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.3482744881489969</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.6584686918340537</v>
-      </c>
+        <v>0.03596246129863341</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="s"/>
       <c r="N7" t="n">
-        <v>910.1</v>
+        <v>23605.5</v>
       </c>
       <c r="O7" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="P7" t="n">
-        <v>118521.25</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R7" t="n">
-        <v>0.9993049772734044</v>
+        <v>1</v>
       </c>
       <c r="S7" t="s">
         <v>25</v>
       </c>
       <c r="T7" t="n">
-        <v>0.2512782997295269</v>
+        <v>0.435507430291864</v>
       </c>
       <c r="U7" t="n">
-        <v>100.3892558560309</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V7" t="n">
-        <v>1200</v>
+        <v>24900</v>
       </c>
       <c r="W7" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="X7" t="n">
-        <v>1352.95</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1224,73 +1176,67 @@
         <v>-1</v>
       </c>
       <c r="B8" t="n">
-        <v>570.8307053941909</v>
+        <v>26182.375</v>
       </c>
       <c r="C8" t="n">
         <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9998246821196975</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="G8" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1.5</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>680</v>
+        <v>28387</v>
       </c>
       <c r="J8" t="n">
-        <v>0.197911911243942</v>
-      </c>
-      <c r="K8" t="n">
-        <v>-0.0308377906138757</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.3804077401022826</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.5531414620304712</v>
-      </c>
+        <v>0.03596246129863341</v>
+      </c>
+      <c r="K8" t="s"/>
+      <c r="L8" t="s"/>
+      <c r="M8" t="s"/>
       <c r="N8" t="n">
-        <v>481.25</v>
+        <v>23605.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="P8" t="n">
-        <v>142572</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="R8" t="n">
-        <v>0.9998246821196975</v>
+        <v>1</v>
       </c>
       <c r="S8" t="s">
         <v>25</v>
       </c>
       <c r="T8" t="n">
-        <v>0.2892318522315998</v>
+        <v>0.3851014777117871</v>
       </c>
       <c r="U8" t="n">
-        <v>48.09252116960054</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V8" t="n">
-        <v>600</v>
+        <v>25000</v>
       </c>
       <c r="W8" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="X8" t="n">
-        <v>676.65</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1298,73 +1244,67 @@
         <v>-1</v>
       </c>
       <c r="B9" t="n">
-        <v>621.091908713693</v>
+        <v>26182.375</v>
       </c>
       <c r="C9" t="n">
         <v>-1</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999866261707704</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>11</v>
       </c>
-      <c r="H9" t="n">
-        <v>2.4</v>
-      </c>
       <c r="I9" t="n">
-        <v>718</v>
+        <v>28387</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1288693384355217</v>
-      </c>
-      <c r="K9" t="n">
-        <v>-0.06215877398294822</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.3557074734175071</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.129490225110199</v>
-      </c>
+        <v>0.03596246129863341</v>
+      </c>
+      <c r="K9" t="s"/>
+      <c r="L9" t="s"/>
+      <c r="M9" t="s"/>
       <c r="N9" t="n">
-        <v>543.3</v>
+        <v>23605.5</v>
       </c>
       <c r="O9" t="n">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="P9" t="n">
-        <v>103945.5</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="R9" t="n">
-        <v>0.9999866261707704</v>
+        <v>1</v>
       </c>
       <c r="S9" t="s">
         <v>25</v>
       </c>
       <c r="T9" t="n">
-        <v>0.4760536662350594</v>
+        <v>0.4435723827046762</v>
       </c>
       <c r="U9" t="n">
-        <v>27.23189502642547</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V9" t="n">
-        <v>600</v>
+        <v>25100</v>
       </c>
       <c r="W9" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="X9" t="n">
-        <v>657.65</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1372,73 +1312,67 @@
         <v>-1</v>
       </c>
       <c r="B10" t="n">
-        <v>621.091908713693</v>
+        <v>26182.375</v>
       </c>
       <c r="C10" t="n">
         <v>-1</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9997305898036419</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="G10" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.75</v>
+        <v>10.95</v>
       </c>
       <c r="I10" t="n">
-        <v>718</v>
+        <v>28387</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1288693384355217</v>
-      </c>
-      <c r="K10" t="n">
-        <v>-0.1017812210867298</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.3556800032092491</v>
-      </c>
-      <c r="M10" t="n">
-        <v>2.032253972689143</v>
-      </c>
+        <v>0.03596246129863341</v>
+      </c>
+      <c r="K10" t="s"/>
+      <c r="L10" t="s"/>
+      <c r="M10" t="s"/>
       <c r="N10" t="n">
-        <v>543.3</v>
+        <v>23605.5</v>
       </c>
       <c r="O10" t="n">
-        <v>900</v>
+        <v>20</v>
       </c>
       <c r="P10" t="n">
-        <v>103945.5</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q10" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="R10" t="n">
-        <v>0.9997305898036419</v>
+        <v>1</v>
       </c>
       <c r="S10" t="s">
         <v>25</v>
       </c>
       <c r="T10" t="n">
-        <v>0.5454781592276722</v>
+        <v>0.4415561446014732</v>
       </c>
       <c r="U10" t="n">
-        <v>27.23189502642547</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V10" t="n">
-        <v>610</v>
+        <v>25200</v>
       </c>
       <c r="W10" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="X10" t="n">
-        <v>657.65</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1446,67 +1380,67 @@
         <v>-1</v>
       </c>
       <c r="B11" t="n">
-        <v>86.95518672199169</v>
+        <v>26182.375</v>
       </c>
       <c r="C11" t="n">
         <v>-1</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999998579335335</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.15</v>
+        <v>2.5</v>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
         <v>11</v>
       </c>
-      <c r="H11" t="n">
-        <v>0.2</v>
-      </c>
       <c r="I11" t="n">
-        <v>105</v>
+        <v>28387</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2661979906473136</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
       <c r="M11" t="s"/>
       <c r="N11" t="n">
-        <v>67.05</v>
+        <v>23605.5</v>
       </c>
       <c r="O11" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="P11" t="n">
-        <v>108867.5</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="R11" t="n">
-        <v>0.9999998579335335</v>
+        <v>1</v>
       </c>
       <c r="S11" t="s">
         <v>25</v>
       </c>
       <c r="T11" t="n">
-        <v>0.2946033230553404</v>
+        <v>0.4435723827046762</v>
       </c>
       <c r="U11" t="n">
-        <v>7.787165208057618</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V11" t="n">
-        <v>70</v>
+        <v>25300</v>
       </c>
       <c r="W11" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X11" t="n">
-        <v>88.5</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1514,67 +1448,67 @@
         <v>-1</v>
       </c>
       <c r="B12" t="n">
-        <v>86.95518672199169</v>
+        <v>26182.375</v>
       </c>
       <c r="C12" t="n">
         <v>-1</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999939095172548</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.25</v>
+        <v>2.55</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3</v>
+        <v>11.05</v>
       </c>
       <c r="I12" t="n">
-        <v>105</v>
+        <v>28387</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2661979906473136</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
       <c r="M12" t="s"/>
       <c r="N12" t="n">
-        <v>67.05</v>
+        <v>23605.5</v>
       </c>
       <c r="O12" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="P12" t="n">
-        <v>108867.5</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="R12" t="n">
-        <v>0.9999939095172548</v>
+        <v>1</v>
       </c>
       <c r="S12" t="s">
         <v>25</v>
       </c>
       <c r="T12" t="n">
-        <v>0.4419049845830106</v>
+        <v>0.4455886208078793</v>
       </c>
       <c r="U12" t="n">
-        <v>7.787165208057618</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V12" t="n">
-        <v>72.5</v>
+        <v>25400</v>
       </c>
       <c r="W12" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X12" t="n">
-        <v>88.5</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1582,67 +1516,67 @@
         <v>-1</v>
       </c>
       <c r="B13" t="n">
-        <v>86.95518672199169</v>
+        <v>26182.375</v>
       </c>
       <c r="C13" t="n">
         <v>-1</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9998640585156099</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.15</v>
+        <v>2.75</v>
       </c>
       <c r="G13" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>11.3</v>
       </c>
       <c r="I13" t="n">
-        <v>105</v>
+        <v>28387</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2661979906473136</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
       <c r="M13" t="s"/>
       <c r="N13" t="n">
-        <v>67.05</v>
+        <v>23605.5</v>
       </c>
       <c r="O13" t="n">
-        <v>7000</v>
+        <v>20</v>
       </c>
       <c r="P13" t="n">
-        <v>108867.5</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="R13" t="n">
-        <v>0.9998640585156099</v>
+        <v>1</v>
       </c>
       <c r="S13" t="s">
         <v>25</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2946033230553404</v>
+        <v>0.4556698113238947</v>
       </c>
       <c r="U13" t="n">
-        <v>7.787165208057618</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V13" t="n">
-        <v>75</v>
+        <v>25500</v>
       </c>
       <c r="W13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X13" t="n">
-        <v>88.5</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1650,73 +1584,67 @@
         <v>-1</v>
       </c>
       <c r="B14" t="n">
-        <v>828.9970954356846</v>
+        <v>26182.375</v>
       </c>
       <c r="C14" t="n">
         <v>-1</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9845644215984191</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>2.05</v>
+        <v>3.65</v>
       </c>
       <c r="G14" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.5</v>
+        <v>12.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>28387</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3795414259320622</v>
-      </c>
-      <c r="K14" t="n">
-        <v>-0.03206335472297472</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.4426344712820139</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.9620558636553284</v>
-      </c>
+        <v>0.03596246129863341</v>
+      </c>
+      <c r="K14" t="s"/>
+      <c r="L14" t="s"/>
+      <c r="M14" t="s"/>
       <c r="N14" t="n">
-        <v>640.25</v>
+        <v>23605.5</v>
       </c>
       <c r="O14" t="n">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="P14" t="n">
-        <v>118651.75</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="R14" t="n">
-        <v>0.9845644215984191</v>
+        <v>1</v>
       </c>
       <c r="S14" t="s">
         <v>25</v>
       </c>
       <c r="T14" t="n">
-        <v>0.3378872127120678</v>
+        <v>0.4939783352847532</v>
       </c>
       <c r="U14" t="n">
-        <v>73.69435710807039</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V14" t="n">
-        <v>840</v>
+        <v>25600</v>
       </c>
       <c r="W14" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="X14" t="n">
-        <v>964.6</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1724,67 +1652,67 @@
         <v>-1</v>
       </c>
       <c r="B15" t="n">
-        <v>978.9470954356847</v>
+        <v>26182.375</v>
       </c>
       <c r="C15" t="n">
         <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9994998879090926</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>3.35</v>
       </c>
       <c r="G15" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>1.9</v>
+        <v>11.95</v>
       </c>
       <c r="I15" t="n">
-        <v>1125</v>
+        <v>28387</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1868640322146584</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
       <c r="M15" t="s"/>
       <c r="N15" t="n">
-        <v>880.1</v>
+        <v>23605.5</v>
       </c>
       <c r="O15" t="n">
-        <v>700</v>
+        <v>20</v>
       </c>
       <c r="P15" t="n">
-        <v>117348</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="R15" t="n">
-        <v>0.9994998879090926</v>
+        <v>1</v>
       </c>
       <c r="S15" t="s">
         <v>25</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2596472961540965</v>
+        <v>0.4818809066655347</v>
       </c>
       <c r="U15" t="n">
-        <v>53.18691782833472</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V15" t="n">
-        <v>860</v>
+        <v>25700</v>
       </c>
       <c r="W15" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="X15" t="n">
-        <v>954.7</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1792,67 +1720,67 @@
         <v>-1</v>
       </c>
       <c r="B16" t="n">
-        <v>1872.74979253112</v>
+        <v>26182.375</v>
       </c>
       <c r="C16" t="n">
         <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9990393625623897</v>
+        <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="G16" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>4.25</v>
+        <v>11.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2052.95</v>
+        <v>28387</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1427070536795016</v>
+        <v>0.03596246129863341</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
       <c r="M16" t="s"/>
       <c r="N16" t="n">
-        <v>1645</v>
+        <v>23605.5</v>
       </c>
       <c r="O16" t="n">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="P16" t="n">
-        <v>176018.75</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q16" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="R16" t="n">
-        <v>0.9990393625623897</v>
+        <v>1</v>
       </c>
       <c r="S16" t="s">
         <v>25</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2765717753467638</v>
+        <v>0.463734763736707</v>
       </c>
       <c r="U16" t="n">
-        <v>82.213258829357</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V16" t="n">
-        <v>1860</v>
+        <v>25800</v>
       </c>
       <c r="W16" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="X16" t="n">
-        <v>2004.55</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -1860,73 +1788,67 @@
         <v>-1</v>
       </c>
       <c r="B17" t="n">
-        <v>62.5402489626556</v>
+        <v>26182.375</v>
       </c>
       <c r="C17" t="n">
         <v>-1</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999172522507068</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>19.85</v>
       </c>
       <c r="G17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2</v>
+        <v>30.1</v>
       </c>
       <c r="I17" t="n">
-        <v>89.90000000000001</v>
+        <v>28387</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3017306877142283</v>
-      </c>
-      <c r="K17" t="n">
-        <v>-0.0127677412941829</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.5122029978908754</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.02486037037308849</v>
-      </c>
+        <v>0.05112799079560226</v>
+      </c>
+      <c r="K17" t="s"/>
+      <c r="L17" t="s"/>
+      <c r="M17" t="s"/>
       <c r="N17" t="n">
-        <v>47.05</v>
+        <v>23605.5</v>
       </c>
       <c r="O17" t="n">
-        <v>10000</v>
+        <v>20</v>
       </c>
       <c r="P17" t="n">
-        <v>106575</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q17" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9999172522507068</v>
+        <v>1</v>
       </c>
       <c r="S17" t="s">
         <v>25</v>
       </c>
       <c r="T17" t="n">
-        <v>0.32243618450515</v>
+        <v>0.269727852917389</v>
       </c>
       <c r="U17" t="n">
-        <v>6.290932216594392</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V17" t="n">
-        <v>50</v>
+        <v>25800</v>
       </c>
       <c r="W17" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="X17" t="n">
-        <v>60.7</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -1934,13 +1856,13 @@
         <v>-1</v>
       </c>
       <c r="B18" t="n">
-        <v>62.5402489626556</v>
+        <v>86.83541666666666</v>
       </c>
       <c r="C18" t="n">
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9996486605350154</v>
+        <v>0.9999751575029789</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1949,58 +1871,52 @@
         <v>0.1</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H18" t="n">
         <v>0.2</v>
       </c>
       <c r="I18" t="n">
-        <v>89.90000000000001</v>
+        <v>105</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3017306877142283</v>
-      </c>
-      <c r="K18" t="n">
-        <v>-0.01290582574747967</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.4603530486001799</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0.02254653217593464</v>
-      </c>
+        <v>0.2668609138617569</v>
+      </c>
+      <c r="K18" t="s"/>
+      <c r="L18" t="s"/>
+      <c r="M18" t="s"/>
       <c r="N18" t="n">
-        <v>47.05</v>
+        <v>67.05</v>
       </c>
       <c r="O18" t="n">
-        <v>10000</v>
+        <v>7000</v>
       </c>
       <c r="P18" t="n">
-        <v>106575</v>
+        <v>111839.98</v>
       </c>
       <c r="Q18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R18" t="n">
-        <v>0.9996486605350154</v>
+        <v>0.9999751575029789</v>
       </c>
       <c r="S18" t="s">
         <v>25</v>
       </c>
       <c r="T18" t="n">
-        <v>0.32243618450515</v>
+        <v>0.2628755834899112</v>
       </c>
       <c r="U18" t="n">
-        <v>6.290932216594392</v>
+        <v>7.677568505700371</v>
       </c>
       <c r="V18" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="X18" t="n">
-        <v>60.7</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2008,67 +1924,67 @@
         <v>-1</v>
       </c>
       <c r="B19" t="n">
-        <v>499.9614107883818</v>
+        <v>1872.990208333333</v>
       </c>
       <c r="C19" t="n">
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9981267748938329</v>
+        <v>0.999995230669755</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H19" t="n">
-        <v>1.2</v>
+        <v>3.65</v>
       </c>
       <c r="I19" t="n">
-        <v>637.15</v>
+        <v>2052.95</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3591479609961777</v>
+        <v>0.1254150246206221</v>
       </c>
       <c r="K19" t="s"/>
       <c r="L19" t="s"/>
       <c r="M19" t="s"/>
       <c r="N19" t="n">
-        <v>358.05</v>
+        <v>1645</v>
       </c>
       <c r="O19" t="n">
-        <v>1400</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
-        <v>144306.4</v>
+        <v>178092.895</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9981267748938329</v>
+        <v>0.999995230669755</v>
       </c>
       <c r="S19" t="s">
         <v>25</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2667052377945311</v>
+        <v>0.2869289086462433</v>
       </c>
       <c r="U19" t="n">
-        <v>51.2870267468538</v>
+        <v>82.75245815809096</v>
       </c>
       <c r="V19" t="n">
-        <v>400</v>
+        <v>1840</v>
       </c>
       <c r="W19" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="X19" t="n">
-        <v>477.35</v>
+        <v>2004.45</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2076,67 +1992,73 @@
         <v>-1</v>
       </c>
       <c r="B20" t="n">
-        <v>1332.962240663901</v>
+        <v>274.3</v>
       </c>
       <c r="C20" t="n">
         <v>-1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9992842984926311</v>
+        <v>0.9999895563077656</v>
       </c>
       <c r="E20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>2</v>
+        <v>0.45</v>
       </c>
       <c r="G20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H20" t="n">
-        <v>2.65</v>
+        <v>0.55</v>
       </c>
       <c r="I20" t="n">
-        <v>1469.95</v>
+        <v>320.75</v>
       </c>
       <c r="J20" t="n">
-        <v>0.151867081893673</v>
-      </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
-      <c r="M20" t="s"/>
+        <v>0.1799802585814302</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.02809373636884394</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.3924061841414971</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.2025171249476568</v>
+      </c>
       <c r="N20" t="n">
-        <v>1182.5</v>
+        <v>215.2</v>
       </c>
       <c r="O20" t="n">
-        <v>375</v>
+        <v>2750</v>
       </c>
       <c r="P20" t="n">
-        <v>88663.125</v>
+        <v>136816.2125</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9992842984926311</v>
+        <v>0.9999895563077656</v>
       </c>
       <c r="S20" t="s">
         <v>25</v>
       </c>
       <c r="T20" t="n">
-        <v>0.2567686294714865</v>
+        <v>0.309539339133511</v>
       </c>
       <c r="U20" t="n">
-        <v>57.71605849551261</v>
+        <v>19.3167942906339</v>
       </c>
       <c r="V20" t="n">
-        <v>1240</v>
+        <v>255</v>
       </c>
       <c r="W20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="X20" t="n">
-        <v>1346.05</v>
+        <v>287.05</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2144,67 +2066,67 @@
         <v>-1</v>
       </c>
       <c r="B21" t="n">
-        <v>423.7298755186722</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C21" t="n">
         <v>-1</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998304963082942</v>
+        <v>0.9999999716207274</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.2</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>1.45</v>
+        <v>11.6</v>
       </c>
       <c r="I21" t="n">
-        <v>545</v>
+        <v>11760.2</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2067537402490435</v>
+        <v>0.06936730851963557</v>
       </c>
       <c r="K21" t="s"/>
       <c r="L21" t="s"/>
       <c r="M21" t="s"/>
       <c r="N21" t="n">
-        <v>356.1</v>
+        <v>9952.049999999999</v>
       </c>
       <c r="O21" t="n">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="P21" t="n">
-        <v>140617.5</v>
+        <v>93041.337</v>
       </c>
       <c r="Q21" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="R21" t="n">
-        <v>0.9998304963082942</v>
+        <v>0.9999999716207274</v>
       </c>
       <c r="S21" t="s">
         <v>25</v>
       </c>
       <c r="T21" t="n">
-        <v>0.3543461711897362</v>
+        <v>0.261819109499684</v>
       </c>
       <c r="U21" t="n">
-        <v>37.77517543622552</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V21" t="n">
-        <v>470</v>
+        <v>10350</v>
       </c>
       <c r="W21" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="X21" t="n">
-        <v>533.4</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="22" spans="1:24">
@@ -2212,7 +2134,7 @@
         <v>-1</v>
       </c>
       <c r="B22" t="n">
-        <v>25.91701244813278</v>
+        <v>536.0893749999999</v>
       </c>
       <c r="C22" t="n">
         <v>-1</v>
@@ -2224,34 +2146,34 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2</v>
+        <v>1.25</v>
       </c>
       <c r="I22" t="n">
-        <v>30.5</v>
+        <v>651.75</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1394451891532143</v>
+        <v>0.1103239710650682</v>
       </c>
       <c r="K22" t="s"/>
       <c r="L22" t="s"/>
       <c r="M22" t="s"/>
       <c r="N22" t="n">
-        <v>22.1</v>
+        <v>438.45</v>
       </c>
       <c r="O22" t="n">
-        <v>27000</v>
+        <v>1200</v>
       </c>
       <c r="P22" t="n">
-        <v>121162.5</v>
+        <v>121460.964</v>
       </c>
       <c r="Q22" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="R22" t="n">
         <v>1</v>
@@ -2260,19 +2182,19 @@
         <v>25</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2552544948088123</v>
+        <v>0.3457901091580337</v>
       </c>
       <c r="U22" t="n">
-        <v>1.701555608692117</v>
+        <v>41.50988338166435</v>
       </c>
       <c r="V22" t="n">
-        <v>14</v>
+        <v>500</v>
       </c>
       <c r="W22" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="X22" t="n">
-        <v>25.55</v>
+        <v>579.9</v>
       </c>
     </row>
     <row r="23" spans="1:24">
@@ -2280,67 +2202,67 @@
         <v>-1</v>
       </c>
       <c r="B23" t="n">
-        <v>10758.34958506224</v>
+        <v>1053.972291666667</v>
       </c>
       <c r="C23" t="n">
         <v>-1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999999651593333</v>
+        <v>0.9999998559595289</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>10.75</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H23" t="n">
-        <v>14</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="n">
-        <v>11760.2</v>
+        <v>1328.95</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06320068000206644</v>
+        <v>0.2428870165868148</v>
       </c>
       <c r="K23" t="s"/>
       <c r="L23" t="s"/>
       <c r="M23" t="s"/>
       <c r="N23" t="n">
-        <v>9952.049999999999</v>
+        <v>871.45</v>
       </c>
       <c r="O23" t="n">
-        <v>75</v>
+        <v>500</v>
       </c>
       <c r="P23" t="n">
-        <v>82162.16250000001</v>
+        <v>105116.0075</v>
       </c>
       <c r="Q23" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="R23" t="n">
-        <v>0.9999999651593333</v>
+        <v>0.9999998559595289</v>
       </c>
       <c r="S23" t="s">
         <v>25</v>
       </c>
       <c r="T23" t="n">
-        <v>0.2927691375521604</v>
+        <v>0.2796909880733436</v>
       </c>
       <c r="U23" t="n">
-        <v>382.8866818807538</v>
+        <v>116.4305581351603</v>
       </c>
       <c r="V23" t="n">
-        <v>10300</v>
+        <v>1020</v>
       </c>
       <c r="W23" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="X23" t="n">
-        <v>10905.2</v>
+        <v>1237.7</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2348,67 +2270,73 @@
         <v>-1</v>
       </c>
       <c r="B24" t="n">
-        <v>193.6939834024896</v>
+        <v>1028.375833333333</v>
       </c>
       <c r="C24" t="n">
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997498728137886</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.7</v>
+        <v>1.55</v>
       </c>
       <c r="G24" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>216</v>
+        <v>1336</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1268230431619659</v>
-      </c>
-      <c r="K24" t="s"/>
-      <c r="L24" t="s"/>
-      <c r="M24" t="s"/>
+        <v>0.1385969198644152</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-9.138466577196525e-05</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2786835524781961</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.00102054436547667</v>
+      </c>
       <c r="N24" t="n">
-        <v>174.1</v>
+        <v>851.15</v>
       </c>
       <c r="O24" t="n">
-        <v>4000</v>
+        <v>550</v>
       </c>
       <c r="P24" t="n">
-        <v>136190</v>
+        <v>102728.8598</v>
       </c>
       <c r="Q24" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="R24" t="n">
-        <v>0.9997498728137886</v>
+        <v>0.9999999999999991</v>
       </c>
       <c r="S24" t="s">
         <v>25</v>
       </c>
       <c r="T24" t="n">
-        <v>0.5382854167640129</v>
+        <v>0.2998183768413635</v>
       </c>
       <c r="U24" t="n">
-        <v>8.363610116092115</v>
+        <v>93.54572177179219</v>
       </c>
       <c r="V24" t="n">
-        <v>180</v>
+        <v>880</v>
       </c>
       <c r="W24" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="X24" t="n">
-        <v>193.9</v>
+        <v>1044.8</v>
       </c>
     </row>
     <row r="25" spans="1:24">
@@ -2416,67 +2344,67 @@
         <v>-1</v>
       </c>
       <c r="B25" t="n">
-        <v>1362.17510373444</v>
+        <v>373.8893749999999</v>
       </c>
       <c r="C25" t="n">
         <v>-1</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999973132480016</v>
+        <v>0.9999956446871214</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>2.5</v>
+        <v>0.75</v>
       </c>
       <c r="G25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
-        <v>3.15</v>
+        <v>0.9</v>
       </c>
       <c r="I25" t="n">
-        <v>1665</v>
+        <v>442.35</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1542799971808423</v>
+        <v>0.171277116023978</v>
       </c>
       <c r="K25" t="s"/>
       <c r="L25" t="s"/>
       <c r="M25" t="s"/>
       <c r="N25" t="n">
-        <v>1063.95</v>
+        <v>294.1</v>
       </c>
       <c r="O25" t="n">
-        <v>400</v>
+        <v>2500</v>
       </c>
       <c r="P25" t="n">
-        <v>114901</v>
+        <v>177200</v>
       </c>
       <c r="Q25" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9999973132480016</v>
+        <v>0.9999956446871214</v>
       </c>
       <c r="S25" t="s">
         <v>25</v>
       </c>
       <c r="T25" t="n">
-        <v>0.251220220411089</v>
+        <v>0.3199774266365689</v>
       </c>
       <c r="U25" t="n">
-        <v>114.6113374617964</v>
+        <v>25.9749791791904</v>
       </c>
       <c r="V25" t="n">
-        <v>1450</v>
+        <v>350</v>
       </c>
       <c r="W25" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="X25" t="n">
-        <v>1634.1</v>
+        <v>396.2</v>
       </c>
     </row>
     <row r="26" spans="1:24">
@@ -2484,67 +2412,67 @@
         <v>-1</v>
       </c>
       <c r="B26" t="n">
-        <v>16551.08381742738</v>
+        <v>621.2672916666667</v>
       </c>
       <c r="C26" t="n">
         <v>-1</v>
       </c>
       <c r="D26" t="n">
-        <v>0.993728301945884</v>
+        <v>0.9999999992638131</v>
       </c>
       <c r="E26" t="n">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>28.3</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
-        <v>34.45</v>
+        <v>1.3</v>
       </c>
       <c r="I26" t="n">
-        <v>19290</v>
+        <v>718</v>
       </c>
       <c r="J26" t="n">
-        <v>0.2209948756906868</v>
+        <v>0.1356474147401766</v>
       </c>
       <c r="K26" t="s"/>
       <c r="L26" t="s"/>
       <c r="M26" t="s"/>
       <c r="N26" t="n">
-        <v>13100</v>
+        <v>543.3</v>
       </c>
       <c r="O26" t="n">
-        <v>50</v>
+        <v>900</v>
       </c>
       <c r="P26" t="n">
-        <v>139799</v>
+        <v>104230.746</v>
       </c>
       <c r="Q26" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="R26" t="n">
-        <v>0.993728301945884</v>
+        <v>0.9999999992638131</v>
       </c>
       <c r="S26" t="s">
         <v>25</v>
       </c>
       <c r="T26" t="n">
-        <v>0.2822688938469453</v>
+        <v>0.282872387769344</v>
       </c>
       <c r="U26" t="n">
-        <v>941.5586978524545</v>
+        <v>27.3938501112007</v>
       </c>
       <c r="V26" t="n">
-        <v>14500</v>
+        <v>580</v>
       </c>
       <c r="W26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="X26" t="n">
-        <v>15914.7</v>
+        <v>663</v>
       </c>
     </row>
     <row r="27" spans="1:24">
@@ -2552,67 +2480,67 @@
         <v>-1</v>
       </c>
       <c r="B27" t="n">
-        <v>246.2408713692946</v>
+        <v>621.2672916666667</v>
       </c>
       <c r="C27" t="n">
         <v>-1</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9992786962024203</v>
+        <v>0.9999971529296343</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="G27" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="I27" t="n">
-        <v>297.4</v>
+        <v>718</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1975201093849436</v>
+        <v>0.1356474147401766</v>
       </c>
       <c r="K27" t="s"/>
       <c r="L27" t="s"/>
       <c r="M27" t="s"/>
       <c r="N27" t="n">
-        <v>211.9</v>
+        <v>543.3</v>
       </c>
       <c r="O27" t="n">
-        <v>3000</v>
+        <v>900</v>
       </c>
       <c r="P27" t="n">
-        <v>137955</v>
+        <v>104230.746</v>
       </c>
       <c r="Q27" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="R27" t="n">
-        <v>0.9992786962024203</v>
+        <v>0.9999971529296343</v>
       </c>
       <c r="S27" t="s">
         <v>25</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3487303171982959</v>
+        <v>0.5875041899824837</v>
       </c>
       <c r="U27" t="n">
-        <v>16.28285633554614</v>
+        <v>27.3938501112007</v>
       </c>
       <c r="V27" t="n">
-        <v>235</v>
+        <v>600</v>
       </c>
       <c r="W27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="X27" t="n">
-        <v>261.6</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2620,67 +2548,67 @@
         <v>-1</v>
       </c>
       <c r="B28" t="n">
-        <v>88.67489626556018</v>
+        <v>621.2672916666667</v>
       </c>
       <c r="C28" t="n">
         <v>-1</v>
       </c>
       <c r="D28" t="n">
-        <v>0.999958631885572</v>
+        <v>0.9999280160674524</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1.3</v>
+        <v>3.85</v>
       </c>
       <c r="G28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
-        <v>1.45</v>
+        <v>4.4</v>
       </c>
       <c r="I28" t="n">
-        <v>151.55</v>
+        <v>718</v>
       </c>
       <c r="J28" t="n">
-        <v>0.3996797117912623</v>
+        <v>0.1356474147401766</v>
       </c>
       <c r="K28" t="s"/>
       <c r="L28" t="s"/>
       <c r="M28" t="s"/>
       <c r="N28" t="n">
-        <v>61.25</v>
+        <v>543.3</v>
       </c>
       <c r="O28" t="n">
-        <v>7000</v>
+        <v>900</v>
       </c>
       <c r="P28" t="n">
-        <v>116655</v>
+        <v>104230.746</v>
       </c>
       <c r="Q28" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="R28" t="n">
-        <v>0.999958631885572</v>
+        <v>0.9999280160674524</v>
       </c>
       <c r="S28" t="s">
         <v>25</v>
       </c>
       <c r="T28" t="n">
-        <v>1.993290238114721</v>
+        <v>0.9574142355270105</v>
       </c>
       <c r="U28" t="n">
-        <v>14.78590862506959</v>
+        <v>27.3938501112007</v>
       </c>
       <c r="V28" t="n">
-        <v>72.5</v>
+        <v>610</v>
       </c>
       <c r="W28" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="X28" t="n">
-        <v>94.84999999999999</v>
+        <v>663</v>
       </c>
     </row>
     <row r="29" spans="1:24">
@@ -2688,67 +2616,73 @@
         <v>-1</v>
       </c>
       <c r="B29" t="n">
-        <v>374.3672199170124</v>
+        <v>264.0752083333334</v>
       </c>
       <c r="C29" t="n">
         <v>-1</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9473925251691546</v>
+        <v>0.9999901250544421</v>
       </c>
       <c r="E29" t="n">
-        <v>0.72</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="G29" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
-        <v>3.05</v>
+        <v>0.65</v>
       </c>
       <c r="I29" t="n">
-        <v>452.2</v>
+        <v>363.55</v>
       </c>
       <c r="J29" t="n">
-        <v>0.244420234043005</v>
-      </c>
-      <c r="K29" t="s"/>
-      <c r="L29" t="s"/>
-      <c r="M29" t="s"/>
+        <v>0.2835263471334256</v>
+      </c>
+      <c r="K29" t="n">
+        <v>-0.02020247957293564</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.6047346606772829</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.2050189255787</v>
+      </c>
       <c r="N29" t="n">
-        <v>294.1</v>
+        <v>204.85</v>
       </c>
       <c r="O29" t="n">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="P29" t="n">
-        <v>173200</v>
+        <v>96818.75999999999</v>
       </c>
       <c r="Q29" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="R29" t="n">
-        <v>0.9473925251691546</v>
+        <v>0.9999901250544421</v>
       </c>
       <c r="S29" t="s">
         <v>25</v>
       </c>
       <c r="T29" t="n">
-        <v>0.2844643808847042</v>
+        <v>0.3383641765294247</v>
       </c>
       <c r="U29" t="n">
-        <v>26.62941475972411</v>
+        <v>25.13299168005931</v>
       </c>
       <c r="V29" t="n">
-        <v>350</v>
+        <v>220</v>
       </c>
       <c r="W29" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="X29" t="n">
-        <v>394.5</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:24">
@@ -2756,73 +2690,67 @@
         <v>-1</v>
       </c>
       <c r="B30" t="n">
-        <v>570.8307053941909</v>
+        <v>26182.375</v>
       </c>
       <c r="C30" t="n">
         <v>-1</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9675791546669261</v>
+        <v>0.9907589340013098</v>
       </c>
       <c r="E30" t="n">
-        <v>0.62</v>
+        <v>3.09</v>
       </c>
       <c r="F30" t="n">
-        <v>4.5</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H30" t="n">
-        <v>5.1</v>
+        <v>117.25</v>
       </c>
       <c r="I30" t="n">
-        <v>680</v>
+        <v>28387</v>
       </c>
       <c r="J30" t="n">
-        <v>0.21506261333461</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-0.09959112626547562</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.3150687605392224</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3.437440084040901</v>
-      </c>
+        <v>0.1121237220863758</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="s"/>
       <c r="N30" t="n">
-        <v>481.25</v>
+        <v>23605.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="P30" t="n">
-        <v>142572</v>
+        <v>62492.6192</v>
       </c>
       <c r="Q30" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="R30" t="n">
-        <v>0.9675791546669261</v>
+        <v>0.9907589340013098</v>
       </c>
       <c r="S30" t="s">
         <v>25</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2773659300887649</v>
+        <v>0.2555718028114167</v>
       </c>
       <c r="U30" t="n">
-        <v>48.09252116960054</v>
+        <v>1093.144895473606</v>
       </c>
       <c r="V30" t="n">
-        <v>600</v>
+        <v>25500</v>
       </c>
       <c r="W30" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="X30" t="n">
-        <v>676.65</v>
+        <v>27533.5</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -2830,67 +2758,73 @@
         <v>-1</v>
       </c>
       <c r="B31" t="n">
-        <v>26187.05809128631</v>
+        <v>596.1595833333333</v>
       </c>
       <c r="C31" t="n">
         <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9876030281725603</v>
+        <v>0.938267196203042</v>
       </c>
       <c r="E31" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="F31" t="n">
-        <v>90.09999999999999</v>
+        <v>3.75</v>
       </c>
       <c r="G31" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H31" t="n">
-        <v>107.35</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
-        <v>28387</v>
+        <v>711.9</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1149900852010466</v>
-      </c>
-      <c r="K31" t="s"/>
-      <c r="L31" t="s"/>
-      <c r="M31" t="s"/>
+        <v>0.3149606637629577</v>
+      </c>
+      <c r="K31" t="n">
+        <v>-0.06938034695185735</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.3417758441275439</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2.287968801377277</v>
+      </c>
       <c r="N31" t="n">
-        <v>23605.5</v>
+        <v>493.5</v>
       </c>
       <c r="O31" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="P31" t="n">
-        <v>55312.89</v>
+        <v>113751.82</v>
       </c>
       <c r="Q31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="R31" t="n">
-        <v>0.9876030281725603</v>
+        <v>0.938267196203042</v>
       </c>
       <c r="S31" t="s">
         <v>25</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2508081403253939</v>
+        <v>0.2574594981116476</v>
       </c>
       <c r="U31" t="n">
-        <v>1093.239641924494</v>
+        <v>51.16259794999718</v>
       </c>
       <c r="V31" t="n">
-        <v>25500</v>
+        <v>560</v>
       </c>
       <c r="W31" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="X31" t="n">
-        <v>27529</v>
+        <v>646.1</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -2898,67 +2832,73 @@
         <v>-1</v>
       </c>
       <c r="B32" t="n">
-        <v>77.50580912863072</v>
+        <v>1872.990208333333</v>
       </c>
       <c r="C32" t="n">
         <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9948081217467351</v>
+        <v>0.9277980116044046</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01</v>
+        <v>4.22</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6</v>
+        <v>12.6</v>
       </c>
       <c r="G32" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H32" t="n">
-        <v>0.7</v>
+        <v>14.2</v>
       </c>
       <c r="I32" t="n">
-        <v>106.9</v>
+        <v>2052.95</v>
       </c>
       <c r="J32" t="n">
-        <v>0.3013965079636676</v>
-      </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
-      <c r="M32" t="s"/>
+        <v>0.2009336396560359</v>
+      </c>
+      <c r="K32" t="n">
+        <v>-0.1068756481154719</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.2383771104002458</v>
+      </c>
+      <c r="M32" t="n">
+        <v>8.139340281205317</v>
+      </c>
       <c r="N32" t="n">
-        <v>61.75</v>
+        <v>1645</v>
       </c>
       <c r="O32" t="n">
-        <v>7500</v>
+        <v>500</v>
       </c>
       <c r="P32" t="n">
-        <v>92475</v>
+        <v>178092.895</v>
       </c>
       <c r="Q32" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="R32" t="n">
-        <v>0.9948081217467351</v>
+        <v>0.9277980116044046</v>
       </c>
       <c r="S32" t="s">
         <v>25</v>
       </c>
       <c r="T32" t="n">
-        <v>0.3668351113606588</v>
+        <v>0.2715254685300992</v>
       </c>
       <c r="U32" t="n">
-        <v>9.003843547017562</v>
+        <v>82.75245815809096</v>
       </c>
       <c r="V32" t="n">
-        <v>55</v>
+        <v>1840</v>
       </c>
       <c r="W32" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="X32" t="n">
-        <v>70.15000000000001</v>
+        <v>2004.45</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -2966,73 +2906,73 @@
         <v>-1</v>
       </c>
       <c r="B33" t="n">
-        <v>621.091908713693</v>
+        <v>1872.990208333333</v>
       </c>
       <c r="C33" t="n">
         <v>-1</v>
       </c>
       <c r="D33" t="n">
-        <v>0.8802188542931663</v>
+        <v>0.9154131019160361</v>
       </c>
       <c r="E33" t="n">
-        <v>2.88</v>
+        <v>5.09</v>
       </c>
       <c r="F33" t="n">
-        <v>5.2</v>
+        <v>14.2</v>
       </c>
       <c r="G33" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H33" t="n">
-        <v>5.9</v>
+        <v>15.95</v>
       </c>
       <c r="I33" t="n">
-        <v>718</v>
+        <v>2052.95</v>
       </c>
       <c r="J33" t="n">
-        <v>0.2204512099586673</v>
+        <v>0.2009336396560359</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.1651881773571424</v>
+        <v>-0.1190244031245815</v>
       </c>
       <c r="L33" t="n">
-        <v>0.270032952045722</v>
+        <v>0.2367999244326448</v>
       </c>
       <c r="M33" t="n">
-        <v>5.31173174258638</v>
+        <v>9.217857128887159</v>
       </c>
       <c r="N33" t="n">
-        <v>543.3</v>
+        <v>1645</v>
       </c>
       <c r="O33" t="n">
-        <v>900</v>
+        <v>500</v>
       </c>
       <c r="P33" t="n">
-        <v>103945.5</v>
+        <v>178092.895</v>
       </c>
       <c r="Q33" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="R33" t="n">
-        <v>0.8802188542931663</v>
+        <v>0.9154131019160361</v>
       </c>
       <c r="S33" t="s">
         <v>25</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3300842194300785</v>
+        <v>0.3049881142996537</v>
       </c>
       <c r="U33" t="n">
-        <v>27.23189502642547</v>
+        <v>82.75245815809096</v>
       </c>
       <c r="V33" t="n">
-        <v>610</v>
+        <v>1850</v>
       </c>
       <c r="W33" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="X33" t="n">
-        <v>657.65</v>
+        <v>2004.45</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3040,67 +2980,67 @@
         <v>-1</v>
       </c>
       <c r="B34" t="n">
-        <v>745.9529045643154</v>
+        <v>1208.281458333333</v>
       </c>
       <c r="C34" t="n">
         <v>-1</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9582869695996804</v>
+        <v>0.9400858713836937</v>
       </c>
       <c r="E34" t="n">
-        <v>1.41</v>
+        <v>3.35</v>
       </c>
       <c r="F34" t="n">
-        <v>5.15</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="G34" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H34" t="n">
-        <v>5.9</v>
+        <v>9.6</v>
       </c>
       <c r="I34" t="n">
-        <v>925</v>
+        <v>1416.9</v>
       </c>
       <c r="J34" t="n">
-        <v>0.2934018831271001</v>
+        <v>0.3096556508492793</v>
       </c>
       <c r="K34" t="s"/>
       <c r="L34" t="s"/>
       <c r="M34" t="s"/>
       <c r="N34" t="n">
-        <v>614.05</v>
+        <v>1019.7</v>
       </c>
       <c r="O34" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P34" t="n">
-        <v>103579</v>
+        <v>176106.832</v>
       </c>
       <c r="Q34" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="R34" t="n">
-        <v>0.9582869695996804</v>
+        <v>0.9400858713836937</v>
       </c>
       <c r="S34" t="s">
         <v>25</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2576405820306611</v>
+        <v>0.2970187268318303</v>
       </c>
       <c r="U34" t="n">
-        <v>66.57356421391617</v>
+        <v>95.02362261102901</v>
       </c>
       <c r="V34" t="n">
-        <v>720</v>
+        <v>1100</v>
       </c>
       <c r="W34" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X34" t="n">
-        <v>841.75</v>
+        <v>1267.6</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3108,67 +3048,67 @@
         <v>-1</v>
       </c>
       <c r="B35" t="n">
-        <v>745.9529045643154</v>
+        <v>1208.281458333333</v>
       </c>
       <c r="C35" t="n">
         <v>-1</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9258356935539616</v>
+        <v>0.9150823330809301</v>
       </c>
       <c r="E35" t="n">
-        <v>2.78</v>
+        <v>5.07</v>
       </c>
       <c r="F35" t="n">
-        <v>7.95</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G35" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H35" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I35" t="n">
-        <v>925</v>
+        <v>1416.9</v>
       </c>
       <c r="J35" t="n">
-        <v>0.2934018831271001</v>
+        <v>0.3096556508492793</v>
       </c>
       <c r="K35" t="s"/>
       <c r="L35" t="s"/>
       <c r="M35" t="s"/>
       <c r="N35" t="n">
-        <v>614.05</v>
+        <v>1019.7</v>
       </c>
       <c r="O35" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P35" t="n">
-        <v>103579</v>
+        <v>176106.832</v>
       </c>
       <c r="Q35" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="R35" t="n">
-        <v>0.9258356935539616</v>
+        <v>0.9150823330809301</v>
       </c>
       <c r="S35" t="s">
         <v>25</v>
       </c>
       <c r="T35" t="n">
-        <v>0.3930110573349068</v>
+        <v>0.3032066169741601</v>
       </c>
       <c r="U35" t="n">
-        <v>66.57356421391617</v>
+        <v>95.02362261102901</v>
       </c>
       <c r="V35" t="n">
-        <v>740</v>
+        <v>1120</v>
       </c>
       <c r="W35" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X35" t="n">
-        <v>841.75</v>
+        <v>1267.6</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3176,67 +3116,67 @@
         <v>-1</v>
       </c>
       <c r="B36" t="n">
-        <v>86.95518672199169</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C36" t="n">
         <v>-1</v>
       </c>
       <c r="D36" t="n">
-        <v>0.960918553471504</v>
+        <v>0.9959595048901374</v>
       </c>
       <c r="E36" t="n">
-        <v>0.14</v>
+        <v>0.47</v>
       </c>
       <c r="F36" t="n">
-        <v>0.55</v>
+        <v>41.75</v>
       </c>
       <c r="G36" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H36" t="n">
-        <v>0.65</v>
+        <v>48.15</v>
       </c>
       <c r="I36" t="n">
-        <v>105</v>
+        <v>11760.2</v>
       </c>
       <c r="J36" t="n">
-        <v>0.3064103357718986</v>
+        <v>0.105762951064596</v>
       </c>
       <c r="K36" t="s"/>
       <c r="L36" t="s"/>
       <c r="M36" t="s"/>
       <c r="N36" t="n">
-        <v>67.05</v>
+        <v>9952.049999999999</v>
       </c>
       <c r="O36" t="n">
-        <v>7000</v>
+        <v>75</v>
       </c>
       <c r="P36" t="n">
-        <v>108867.5</v>
+        <v>93041.337</v>
       </c>
       <c r="Q36" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="R36" t="n">
-        <v>0.960918553471504</v>
+        <v>0.9959595048901374</v>
       </c>
       <c r="S36" t="s">
         <v>25</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2700530461340621</v>
+        <v>0.2643506782425165</v>
       </c>
       <c r="U36" t="n">
-        <v>7.787165208057618</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V36" t="n">
-        <v>75</v>
+        <v>10100</v>
       </c>
       <c r="W36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="X36" t="n">
-        <v>88.5</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3244,67 +3184,67 @@
         <v>-1</v>
       </c>
       <c r="B37" t="n">
-        <v>348.9453319502075</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C37" t="n">
         <v>-1</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9338403320849278</v>
+        <v>0.9907656241112368</v>
       </c>
       <c r="E37" t="n">
-        <v>0.98</v>
+        <v>1.16</v>
       </c>
       <c r="F37" t="n">
-        <v>2.25</v>
+        <v>50.9</v>
       </c>
       <c r="G37" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H37" t="n">
-        <v>2.55</v>
+        <v>58.2</v>
       </c>
       <c r="I37" t="n">
-        <v>399.35</v>
+        <v>11760.2</v>
       </c>
       <c r="J37" t="n">
-        <v>0.3006906513009415</v>
+        <v>0.105762951064596</v>
       </c>
       <c r="K37" t="s"/>
       <c r="L37" t="s"/>
       <c r="M37" t="s"/>
       <c r="N37" t="n">
-        <v>299</v>
+        <v>9952.049999999999</v>
       </c>
       <c r="O37" t="n">
-        <v>2667</v>
+        <v>75</v>
       </c>
       <c r="P37" t="n">
-        <v>155559.5325</v>
+        <v>93041.337</v>
       </c>
       <c r="Q37" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R37" t="n">
-        <v>0.9338403320849278</v>
+        <v>0.9907656241112368</v>
       </c>
       <c r="S37" t="s">
         <v>25</v>
       </c>
       <c r="T37" t="n">
-        <v>0.282489624003941</v>
+        <v>0.3195266765049732</v>
       </c>
       <c r="U37" t="n">
-        <v>17.58856933519903</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V37" t="n">
-        <v>290</v>
+        <v>10200</v>
       </c>
       <c r="W37" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="X37" t="n">
-        <v>332.4</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3312,67 +3252,67 @@
         <v>-1</v>
       </c>
       <c r="B38" t="n">
-        <v>348.9453319502075</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C38" t="n">
         <v>-1</v>
       </c>
       <c r="D38" t="n">
-        <v>0.8769963787903797</v>
+        <v>0.9806025156900019</v>
       </c>
       <c r="E38" t="n">
-        <v>2.07</v>
+        <v>2.65</v>
       </c>
       <c r="F38" t="n">
-        <v>3.4</v>
+        <v>64</v>
       </c>
       <c r="G38" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>72.59999999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>399.35</v>
+        <v>11760.2</v>
       </c>
       <c r="J38" t="n">
-        <v>0.3006906513009415</v>
+        <v>0.105762951064596</v>
       </c>
       <c r="K38" t="s"/>
       <c r="L38" t="s"/>
       <c r="M38" t="s"/>
       <c r="N38" t="n">
-        <v>299</v>
+        <v>9952.049999999999</v>
       </c>
       <c r="O38" t="n">
-        <v>2667</v>
+        <v>75</v>
       </c>
       <c r="P38" t="n">
-        <v>155559.5325</v>
+        <v>93041.337</v>
       </c>
       <c r="Q38" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="R38" t="n">
-        <v>0.8769963787903797</v>
+        <v>0.9806025156900019</v>
       </c>
       <c r="S38" t="s">
         <v>25</v>
       </c>
       <c r="T38" t="n">
-        <v>0.4209649298882259</v>
+        <v>0.3985848232690902</v>
       </c>
       <c r="U38" t="n">
-        <v>17.58856933519903</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V38" t="n">
-        <v>300</v>
+        <v>10300</v>
       </c>
       <c r="W38" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="X38" t="n">
-        <v>332.4</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3380,67 +3320,67 @@
         <v>-1</v>
       </c>
       <c r="B39" t="n">
-        <v>17.62925311203319</v>
+        <v>274.1114583333334</v>
       </c>
       <c r="C39" t="n">
         <v>-1</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9928572558715952</v>
+        <v>0.9614702658278719</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F39" t="n">
-        <v>0.45</v>
+        <v>2.2</v>
       </c>
       <c r="G39" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H39" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="I39" t="n">
-        <v>24.15</v>
+        <v>326.3</v>
       </c>
       <c r="J39" t="n">
-        <v>0.3012129307727318</v>
+        <v>0.2254824261366922</v>
       </c>
       <c r="K39" t="s"/>
       <c r="L39" t="s"/>
       <c r="M39" t="s"/>
       <c r="N39" t="n">
-        <v>14.55</v>
+        <v>232.35</v>
       </c>
       <c r="O39" t="n">
-        <v>45000</v>
+        <v>3000</v>
       </c>
       <c r="P39" t="n">
-        <v>129150</v>
+        <v>157287.045</v>
       </c>
       <c r="Q39" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="R39" t="n">
-        <v>0.9928572558715952</v>
+        <v>0.9614702658278719</v>
       </c>
       <c r="S39" t="s">
         <v>25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.125703564727955</v>
+        <v>0.3247634354188615</v>
       </c>
       <c r="U39" t="n">
-        <v>1.670902141054329</v>
+        <v>20.03305559876635</v>
       </c>
       <c r="V39" t="n">
-        <v>13</v>
+        <v>260</v>
       </c>
       <c r="W39" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="X39" t="n">
-        <v>16.35</v>
+        <v>292.45</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3448,73 +3388,67 @@
         <v>-1</v>
       </c>
       <c r="B40" t="n">
-        <v>828.9970954356846</v>
+        <v>245.94125</v>
       </c>
       <c r="C40" t="n">
         <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>0.9463990666666694</v>
+        <v>0.919546468300646</v>
       </c>
       <c r="E40" t="n">
-        <v>2.47</v>
+        <v>1.05</v>
       </c>
       <c r="F40" t="n">
-        <v>9.449999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="G40" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H40" t="n">
-        <v>10.65</v>
+        <v>1.95</v>
       </c>
       <c r="I40" t="n">
-        <v>1000</v>
+        <v>290.45</v>
       </c>
       <c r="J40" t="n">
-        <v>0.3313743001847067</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-0.1054178598867149</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.4384542691121802</v>
-      </c>
-      <c r="M40" t="n">
-        <v>7.434096433101652</v>
-      </c>
+        <v>0.3347921320477232</v>
+      </c>
+      <c r="K40" t="s"/>
+      <c r="L40" t="s"/>
+      <c r="M40" t="s"/>
       <c r="N40" t="n">
-        <v>640.25</v>
+        <v>211.9</v>
       </c>
       <c r="O40" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="P40" t="n">
-        <v>118651.75</v>
+        <v>141122.55</v>
       </c>
       <c r="Q40" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="R40" t="n">
-        <v>0.9463990666666694</v>
+        <v>0.919546468300646</v>
       </c>
       <c r="S40" t="s">
         <v>25</v>
       </c>
       <c r="T40" t="n">
-        <v>0.4059844817355768</v>
+        <v>0.2823308056950731</v>
       </c>
       <c r="U40" t="n">
-        <v>73.69435710807039</v>
+        <v>15.87013201281472</v>
       </c>
       <c r="V40" t="n">
-        <v>820</v>
+        <v>225</v>
       </c>
       <c r="W40" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X40" t="n">
-        <v>964.6</v>
+        <v>258.55</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3522,73 +3456,67 @@
         <v>-1</v>
       </c>
       <c r="B41" t="n">
-        <v>828.9970954356846</v>
+        <v>245.94125</v>
       </c>
       <c r="C41" t="n">
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9174969366657759</v>
+        <v>0.8841191752427154</v>
       </c>
       <c r="E41" t="n">
-        <v>4.1</v>
+        <v>1.63</v>
       </c>
       <c r="F41" t="n">
-        <v>12.85</v>
+        <v>2.4</v>
       </c>
       <c r="G41" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H41" t="n">
-        <v>14.35</v>
+        <v>2.7</v>
       </c>
       <c r="I41" t="n">
-        <v>1000</v>
+        <v>290.45</v>
       </c>
       <c r="J41" t="n">
-        <v>0.3313743001847067</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-0.1395106570158788</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.4389029766075578</v>
-      </c>
-      <c r="M41" t="n">
-        <v>10.51095529781936</v>
-      </c>
+        <v>0.3347921320477232</v>
+      </c>
+      <c r="K41" t="s"/>
+      <c r="L41" t="s"/>
+      <c r="M41" t="s"/>
       <c r="N41" t="n">
-        <v>640.25</v>
+        <v>211.9</v>
       </c>
       <c r="O41" t="n">
-        <v>700</v>
+        <v>3000</v>
       </c>
       <c r="P41" t="n">
-        <v>118651.75</v>
+        <v>141122.55</v>
       </c>
       <c r="Q41" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="R41" t="n">
-        <v>0.9174969366657759</v>
+        <v>0.8841191752427154</v>
       </c>
       <c r="S41" t="s">
         <v>25</v>
       </c>
       <c r="T41" t="n">
-        <v>0.5470307336061528</v>
+        <v>0.3909195771162552</v>
       </c>
       <c r="U41" t="n">
-        <v>73.69435710807039</v>
+        <v>15.87013201281472</v>
       </c>
       <c r="V41" t="n">
-        <v>840</v>
+        <v>230</v>
       </c>
       <c r="W41" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="X41" t="n">
-        <v>964.6</v>
+        <v>258.55</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3596,73 +3524,67 @@
         <v>-1</v>
       </c>
       <c r="B42" t="n">
-        <v>978.9470954356847</v>
+        <v>297.25</v>
       </c>
       <c r="C42" t="n">
         <v>-1</v>
       </c>
       <c r="D42" t="n">
-        <v>0.8912382585309666</v>
+        <v>0.9751901968780784</v>
       </c>
       <c r="E42" t="n">
-        <v>4.31</v>
+        <v>0.27</v>
       </c>
       <c r="F42" t="n">
-        <v>6.35</v>
+        <v>2.5</v>
       </c>
       <c r="G42" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H42" t="n">
-        <v>7.2</v>
+        <v>2.8</v>
       </c>
       <c r="I42" t="n">
-        <v>1125</v>
+        <v>347.5</v>
       </c>
       <c r="J42" t="n">
-        <v>0.2544595897469144</v>
-      </c>
-      <c r="K42" t="n">
-        <v>-0.1303535827259177</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0.2765992056858239</v>
-      </c>
-      <c r="M42" t="n">
-        <v>5.869123724414687</v>
-      </c>
+        <v>0.2598656876931713</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s"/>
+      <c r="M42" t="s"/>
       <c r="N42" t="n">
-        <v>880.1</v>
+        <v>253.6</v>
       </c>
       <c r="O42" t="n">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="P42" t="n">
-        <v>117348</v>
+        <v>149392.44</v>
       </c>
       <c r="Q42" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="R42" t="n">
-        <v>0.8912382585309666</v>
+        <v>0.9751901968780784</v>
       </c>
       <c r="S42" t="s">
         <v>25</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2775177578327185</v>
+        <v>0.30636522603586</v>
       </c>
       <c r="U42" t="n">
-        <v>53.18691782833472</v>
+        <v>24.81104550732731</v>
       </c>
       <c r="V42" t="n">
-        <v>870</v>
+        <v>290</v>
       </c>
       <c r="W42" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="X42" t="n">
-        <v>954.7</v>
+        <v>337.8</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3670,67 +3592,67 @@
         <v>-1</v>
       </c>
       <c r="B43" t="n">
-        <v>1872.74979253112</v>
+        <v>373.8893749999999</v>
       </c>
       <c r="C43" t="n">
         <v>-1</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9277736595881944</v>
+        <v>0.9366979410945404</v>
       </c>
       <c r="E43" t="n">
-        <v>4.24</v>
+        <v>0.88</v>
       </c>
       <c r="F43" t="n">
-        <v>14.6</v>
+        <v>2.6</v>
       </c>
       <c r="G43" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H43" t="n">
-        <v>16.4</v>
+        <v>2.95</v>
       </c>
       <c r="I43" t="n">
-        <v>2052.95</v>
+        <v>442.35</v>
       </c>
       <c r="J43" t="n">
-        <v>0.1965266222852041</v>
+        <v>0.241915497277291</v>
       </c>
       <c r="K43" t="s"/>
       <c r="L43" t="s"/>
       <c r="M43" t="s"/>
       <c r="N43" t="n">
-        <v>1645</v>
+        <v>294.1</v>
       </c>
       <c r="O43" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="P43" t="n">
-        <v>176018.75</v>
+        <v>177200</v>
       </c>
       <c r="Q43" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R43" t="n">
-        <v>0.9277736595881944</v>
+        <v>0.9366979410945404</v>
       </c>
       <c r="S43" t="s">
         <v>25</v>
       </c>
       <c r="T43" t="n">
-        <v>0.3010168824890268</v>
+        <v>0.2760039206368065</v>
       </c>
       <c r="U43" t="n">
-        <v>82.213258829357</v>
+        <v>25.9749791791904</v>
       </c>
       <c r="V43" t="n">
-        <v>1840</v>
+        <v>355</v>
       </c>
       <c r="W43" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="X43" t="n">
-        <v>2004.55</v>
+        <v>396.2</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3738,67 +3660,67 @@
         <v>-1</v>
       </c>
       <c r="B44" t="n">
-        <v>1872.74979253112</v>
+        <v>621.2672916666667</v>
       </c>
       <c r="C44" t="n">
         <v>-1</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9154399781932686</v>
+        <v>0.937714749300851</v>
       </c>
       <c r="E44" t="n">
-        <v>5.11</v>
+        <v>1.31</v>
       </c>
       <c r="F44" t="n">
-        <v>16.3</v>
+        <v>3.95</v>
       </c>
       <c r="G44" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H44" t="n">
-        <v>18.25</v>
+        <v>4.55</v>
       </c>
       <c r="I44" t="n">
-        <v>2052.95</v>
+        <v>718</v>
       </c>
       <c r="J44" t="n">
-        <v>0.1965266222852041</v>
+        <v>0.2202180473895414</v>
       </c>
       <c r="K44" t="s"/>
       <c r="L44" t="s"/>
       <c r="M44" t="s"/>
       <c r="N44" t="n">
-        <v>1645</v>
+        <v>543.3</v>
       </c>
       <c r="O44" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="P44" t="n">
-        <v>176018.75</v>
+        <v>104230.746</v>
       </c>
       <c r="Q44" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="R44" t="n">
-        <v>0.9154399781932686</v>
+        <v>0.937714749300851</v>
       </c>
       <c r="S44" t="s">
         <v>25</v>
       </c>
       <c r="T44" t="n">
-        <v>0.3349730552088256</v>
+        <v>0.2605403571559747</v>
       </c>
       <c r="U44" t="n">
-        <v>82.213258829357</v>
+        <v>27.3938501112007</v>
       </c>
       <c r="V44" t="n">
-        <v>1850</v>
+        <v>600</v>
       </c>
       <c r="W44" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="X44" t="n">
-        <v>2004.55</v>
+        <v>663</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -3806,67 +3728,67 @@
         <v>-1</v>
       </c>
       <c r="B45" t="n">
-        <v>1872.74979253112</v>
+        <v>621.2672916666667</v>
       </c>
       <c r="C45" t="n">
         <v>-1</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9016689286032753</v>
+        <v>0.9037542847330178</v>
       </c>
       <c r="E45" t="n">
-        <v>6.13</v>
+        <v>2.19</v>
       </c>
       <c r="F45" t="n">
-        <v>18.2</v>
+        <v>5.7</v>
       </c>
       <c r="G45" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H45" t="n">
-        <v>20.35</v>
+        <v>6.45</v>
       </c>
       <c r="I45" t="n">
-        <v>2052.95</v>
+        <v>718</v>
       </c>
       <c r="J45" t="n">
-        <v>0.1965266222852041</v>
+        <v>0.2202180473895414</v>
       </c>
       <c r="K45" t="s"/>
       <c r="L45" t="s"/>
       <c r="M45" t="s"/>
       <c r="N45" t="n">
-        <v>1645</v>
+        <v>543.3</v>
       </c>
       <c r="O45" t="n">
-        <v>500</v>
+        <v>900</v>
       </c>
       <c r="P45" t="n">
-        <v>176018.75</v>
+        <v>104230.746</v>
       </c>
       <c r="Q45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="R45" t="n">
-        <v>0.9016689286032753</v>
+        <v>0.9037542847330178</v>
       </c>
       <c r="S45" t="s">
         <v>25</v>
       </c>
       <c r="T45" t="n">
-        <v>0.3735178999177863</v>
+        <v>0.3693374293749532</v>
       </c>
       <c r="U45" t="n">
-        <v>82.213258829357</v>
+        <v>27.3938501112007</v>
       </c>
       <c r="V45" t="n">
-        <v>1860</v>
+        <v>610</v>
       </c>
       <c r="W45" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="X45" t="n">
-        <v>2004.55</v>
+        <v>663</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -3874,67 +3796,67 @@
         <v>-1</v>
       </c>
       <c r="B46" t="n">
-        <v>1872.74979253112</v>
+        <v>86.83541666666666</v>
       </c>
       <c r="C46" t="n">
         <v>-1</v>
       </c>
       <c r="D46" t="n">
-        <v>0.8696272621182132</v>
+        <v>0.9107551858537211</v>
       </c>
       <c r="E46" t="n">
-        <v>8.65</v>
+        <v>0.54</v>
       </c>
       <c r="F46" t="n">
-        <v>22.45</v>
+        <v>0.95</v>
       </c>
       <c r="G46" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H46" t="n">
-        <v>25.05</v>
+        <v>1.05</v>
       </c>
       <c r="I46" t="n">
-        <v>2052.95</v>
+        <v>105</v>
       </c>
       <c r="J46" t="n">
-        <v>0.1965266222852041</v>
+        <v>0.32987056346209</v>
       </c>
       <c r="K46" t="s"/>
       <c r="L46" t="s"/>
       <c r="M46" t="s"/>
       <c r="N46" t="n">
-        <v>1645</v>
+        <v>67.05</v>
       </c>
       <c r="O46" t="n">
-        <v>500</v>
+        <v>7000</v>
       </c>
       <c r="P46" t="n">
-        <v>176018.75</v>
+        <v>111839.98</v>
       </c>
       <c r="Q46" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="R46" t="n">
-        <v>0.8696272621182132</v>
+        <v>0.9107551858537211</v>
       </c>
       <c r="S46" t="s">
         <v>25</v>
       </c>
       <c r="T46" t="n">
-        <v>0.4597849333140318</v>
+        <v>0.254787103997914</v>
       </c>
       <c r="U46" t="n">
-        <v>82.213258829357</v>
+        <v>7.677568505700371</v>
       </c>
       <c r="V46" t="n">
-        <v>1880</v>
+        <v>75</v>
       </c>
       <c r="W46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="X46" t="n">
-        <v>2004.55</v>
+        <v>88.7</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -3942,67 +3864,73 @@
         <v>-1</v>
       </c>
       <c r="B47" t="n">
-        <v>229.0199170124481</v>
+        <v>596.1595833333333</v>
       </c>
       <c r="C47" t="n">
         <v>-1</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9582344185440774</v>
+        <v>0.8847587842419465</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3</v>
+        <v>5.26</v>
       </c>
       <c r="F47" t="n">
-        <v>1.5</v>
+        <v>7.8</v>
       </c>
       <c r="G47" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H47" t="n">
-        <v>1.7</v>
+        <v>8.75</v>
       </c>
       <c r="I47" t="n">
-        <v>267.15</v>
+        <v>711.9</v>
       </c>
       <c r="J47" t="n">
-        <v>0.256158494749079</v>
-      </c>
-      <c r="K47" t="s"/>
-      <c r="L47" t="s"/>
-      <c r="M47" t="s"/>
+        <v>0.3233244349662127</v>
+      </c>
+      <c r="K47" t="n">
+        <v>-0.1175861392390029</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.3417830885123228</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5.790408804611959</v>
+      </c>
       <c r="N47" t="n">
-        <v>192.35</v>
+        <v>493.5</v>
       </c>
       <c r="O47" t="n">
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="P47" t="n">
-        <v>126647.5</v>
+        <v>113751.82</v>
       </c>
       <c r="Q47" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="R47" t="n">
-        <v>0.9582344185440774</v>
+        <v>0.8847587842419465</v>
       </c>
       <c r="S47" t="s">
         <v>25</v>
       </c>
       <c r="T47" t="n">
-        <v>0.3035682018686026</v>
+        <v>0.2982200805497171</v>
       </c>
       <c r="U47" t="n">
-        <v>13.52611189136321</v>
+        <v>51.16259794999718</v>
       </c>
       <c r="V47" t="n">
-        <v>180</v>
+        <v>560</v>
       </c>
       <c r="W47" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="X47" t="n">
-        <v>206</v>
+        <v>646.1</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4010,67 +3938,73 @@
         <v>-1</v>
       </c>
       <c r="B48" t="n">
-        <v>229.0199170124481</v>
+        <v>828.3497916666666</v>
       </c>
       <c r="C48" t="n">
         <v>-1</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9197415368160943</v>
+        <v>0.9410667090007174</v>
       </c>
       <c r="E48" t="n">
-        <v>0.65</v>
+        <v>3.67</v>
       </c>
       <c r="F48" t="n">
-        <v>1.5</v>
+        <v>11.6</v>
       </c>
       <c r="G48" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H48" t="n">
-        <v>1.7</v>
+        <v>13</v>
       </c>
       <c r="I48" t="n">
-        <v>267.15</v>
+        <v>996.7</v>
       </c>
       <c r="J48" t="n">
-        <v>0.256158494749079</v>
-      </c>
-      <c r="K48" t="s"/>
-      <c r="L48" t="s"/>
-      <c r="M48" t="s"/>
+        <v>0.3400754145476488</v>
+      </c>
+      <c r="K48" t="n">
+        <v>-0.1190347088512069</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.4703390368905303</v>
+      </c>
+      <c r="M48" t="n">
+        <v>12.18960477928567</v>
+      </c>
       <c r="N48" t="n">
-        <v>192.35</v>
+        <v>640.25</v>
       </c>
       <c r="O48" t="n">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="P48" t="n">
-        <v>126647.5</v>
+        <v>126298.1895</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="R48" t="n">
-        <v>0.9197415368160943</v>
+        <v>0.9410667090007174</v>
       </c>
       <c r="S48" t="s">
         <v>25</v>
       </c>
       <c r="T48" t="n">
-        <v>0.3035682018686026</v>
+        <v>0.2793389211648201</v>
       </c>
       <c r="U48" t="n">
-        <v>13.52611189136321</v>
+        <v>73.16876603355604</v>
       </c>
       <c r="V48" t="n">
-        <v>185</v>
+        <v>780</v>
       </c>
       <c r="W48" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="X48" t="n">
-        <v>206</v>
+        <v>956.3</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4078,67 +4012,73 @@
         <v>-1</v>
       </c>
       <c r="B49" t="n">
-        <v>1332.962240663901</v>
+        <v>828.3497916666666</v>
       </c>
       <c r="C49" t="n">
         <v>-1</v>
       </c>
       <c r="D49" t="n">
-        <v>0.921313558764006</v>
+        <v>0.9173361636371016</v>
       </c>
       <c r="E49" t="n">
-        <v>3.12</v>
+        <v>5.48</v>
       </c>
       <c r="F49" t="n">
-        <v>17.25</v>
+        <v>15.05</v>
       </c>
       <c r="G49" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H49" t="n">
-        <v>19.4</v>
+        <v>16.8</v>
       </c>
       <c r="I49" t="n">
-        <v>1469.95</v>
+        <v>996.7</v>
       </c>
       <c r="J49" t="n">
-        <v>0.1945425436280104</v>
-      </c>
-      <c r="K49" t="s"/>
-      <c r="L49" t="s"/>
-      <c r="M49" t="s"/>
+        <v>0.3400754145476488</v>
+      </c>
+      <c r="K49" t="n">
+        <v>-0.1461790832449932</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.4703390368905303</v>
+      </c>
+      <c r="M49" t="n">
+        <v>15.74448901979376</v>
+      </c>
       <c r="N49" t="n">
-        <v>1182.5</v>
+        <v>640.25</v>
       </c>
       <c r="O49" t="n">
-        <v>375</v>
+        <v>700</v>
       </c>
       <c r="P49" t="n">
-        <v>88663.125</v>
+        <v>126298.1895</v>
       </c>
       <c r="Q49" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="R49" t="n">
-        <v>0.921313558764006</v>
+        <v>0.9173361636371016</v>
       </c>
       <c r="S49" t="s">
         <v>25</v>
       </c>
       <c r="T49" t="n">
-        <v>0.5301831207471235</v>
+        <v>0.3609918365822289</v>
       </c>
       <c r="U49" t="n">
-        <v>57.71605849551261</v>
+        <v>73.16876603355604</v>
       </c>
       <c r="V49" t="n">
-        <v>1240</v>
+        <v>800</v>
       </c>
       <c r="W49" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="X49" t="n">
-        <v>1346.05</v>
+        <v>956.3</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4146,67 +4086,67 @@
         <v>-1</v>
       </c>
       <c r="B50" t="n">
-        <v>457.0699170124482</v>
+        <v>1872.990208333333</v>
       </c>
       <c r="C50" t="n">
         <v>-1</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9545136192995676</v>
+        <v>0.8485418993942364</v>
       </c>
       <c r="E50" t="n">
-        <v>1.05</v>
+        <v>15.04</v>
       </c>
       <c r="F50" t="n">
-        <v>3.05</v>
+        <v>25.55</v>
       </c>
       <c r="G50" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>28.45</v>
       </c>
       <c r="I50" t="n">
-        <v>557.05</v>
+        <v>2052.95</v>
       </c>
       <c r="J50" t="n">
-        <v>0.3601329052229079</v>
+        <v>0.2172441808971248</v>
       </c>
       <c r="K50" t="s"/>
       <c r="L50" t="s"/>
       <c r="M50" t="s"/>
       <c r="N50" t="n">
-        <v>350</v>
+        <v>1645</v>
       </c>
       <c r="O50" t="n">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="P50" t="n">
-        <v>96441</v>
+        <v>178092.895</v>
       </c>
       <c r="Q50" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="R50" t="n">
-        <v>0.9545136192995676</v>
+        <v>0.8485418993942364</v>
       </c>
       <c r="S50" t="s">
         <v>25</v>
       </c>
       <c r="T50" t="n">
-        <v>0.2813996281504914</v>
+        <v>0.3096655302797497</v>
       </c>
       <c r="U50" t="n">
-        <v>40.58903406463583</v>
+        <v>82.75245815809096</v>
       </c>
       <c r="V50" t="n">
-        <v>380</v>
+        <v>1850</v>
       </c>
       <c r="W50" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="X50" t="n">
-        <v>457.2</v>
+        <v>2004.45</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4214,67 +4154,67 @@
         <v>-1</v>
       </c>
       <c r="B51" t="n">
-        <v>457.0699170124482</v>
+        <v>1208.281458333333</v>
       </c>
       <c r="C51" t="n">
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.929169402576864</v>
+        <v>0.9170469560319421</v>
       </c>
       <c r="E51" t="n">
-        <v>1.77</v>
+        <v>5.82</v>
       </c>
       <c r="F51" t="n">
-        <v>4.35</v>
+        <v>12.7</v>
       </c>
       <c r="G51" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H51" t="n">
-        <v>4.9</v>
+        <v>14.2</v>
       </c>
       <c r="I51" t="n">
-        <v>557.05</v>
+        <v>1416.9</v>
       </c>
       <c r="J51" t="n">
-        <v>0.3601329052229079</v>
+        <v>0.2740709832400287</v>
       </c>
       <c r="K51" t="s"/>
       <c r="L51" t="s"/>
       <c r="M51" t="s"/>
       <c r="N51" t="n">
-        <v>350</v>
+        <v>1019.7</v>
       </c>
       <c r="O51" t="n">
-        <v>1200</v>
+        <v>800</v>
       </c>
       <c r="P51" t="n">
-        <v>96441</v>
+        <v>176106.832</v>
       </c>
       <c r="Q51" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="R51" t="n">
-        <v>0.929169402576864</v>
+        <v>0.9170469560319421</v>
       </c>
       <c r="S51" t="s">
         <v>25</v>
       </c>
       <c r="T51" t="n">
-        <v>0.3939594794106879</v>
+        <v>0.2500859600600058</v>
       </c>
       <c r="U51" t="n">
-        <v>40.58903406463583</v>
+        <v>95.02362261102901</v>
       </c>
       <c r="V51" t="n">
-        <v>390</v>
+        <v>1100</v>
       </c>
       <c r="W51" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="X51" t="n">
-        <v>457.2</v>
+        <v>1267.6</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4282,67 +4222,67 @@
         <v>-1</v>
       </c>
       <c r="B52" t="n">
-        <v>456.6790456431535</v>
+        <v>1208.281458333333</v>
       </c>
       <c r="C52" t="n">
         <v>-1</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8891193168300732</v>
+        <v>0.8905927871730852</v>
       </c>
       <c r="E52" t="n">
-        <v>3.15</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>3.6</v>
+        <v>16.45</v>
       </c>
       <c r="G52" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H52" t="n">
-        <v>4.1</v>
+        <v>18.3</v>
       </c>
       <c r="I52" t="n">
-        <v>534</v>
+        <v>1416.9</v>
       </c>
       <c r="J52" t="n">
-        <v>0.3804967439118355</v>
+        <v>0.2740709832400287</v>
       </c>
       <c r="K52" t="s"/>
       <c r="L52" t="s"/>
       <c r="M52" t="s"/>
       <c r="N52" t="n">
-        <v>348.6</v>
+        <v>1019.7</v>
       </c>
       <c r="O52" t="n">
-        <v>1250</v>
+        <v>800</v>
       </c>
       <c r="P52" t="n">
-        <v>104001.75</v>
+        <v>176106.832</v>
       </c>
       <c r="Q52" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="R52" t="n">
-        <v>0.8891193168300732</v>
+        <v>0.8905927871730852</v>
       </c>
       <c r="S52" t="s">
         <v>25</v>
       </c>
       <c r="T52" t="n">
-        <v>0.3184118018724167</v>
+        <v>0.3222938781055005</v>
       </c>
       <c r="U52" t="n">
-        <v>35.46327313450994</v>
+        <v>95.02362261102901</v>
       </c>
       <c r="V52" t="n">
-        <v>390</v>
+        <v>1120</v>
       </c>
       <c r="W52" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="X52" t="n">
-        <v>447.75</v>
+        <v>1267.6</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4350,67 +4290,67 @@
         <v>-1</v>
       </c>
       <c r="B53" t="n">
-        <v>423.7298755186722</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C53" t="n">
         <v>-1</v>
       </c>
       <c r="D53" t="n">
-        <v>0.9452170039624879</v>
+        <v>0.9824679824159219</v>
       </c>
       <c r="E53" t="n">
-        <v>1.27</v>
+        <v>3.51</v>
       </c>
       <c r="F53" t="n">
-        <v>4.35</v>
+        <v>73.7</v>
       </c>
       <c r="G53" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H53" t="n">
-        <v>4.9</v>
+        <v>83.25</v>
       </c>
       <c r="I53" t="n">
-        <v>545</v>
+        <v>11760.2</v>
       </c>
       <c r="J53" t="n">
-        <v>0.302109805849015</v>
+        <v>0.117955156416107</v>
       </c>
       <c r="K53" t="s"/>
       <c r="L53" t="s"/>
       <c r="M53" t="s"/>
       <c r="N53" t="n">
-        <v>356.1</v>
+        <v>9952.049999999999</v>
       </c>
       <c r="O53" t="n">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="P53" t="n">
-        <v>140617.5</v>
+        <v>93041.337</v>
       </c>
       <c r="Q53" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="R53" t="n">
-        <v>0.9452170039624879</v>
+        <v>0.9824679824159219</v>
       </c>
       <c r="S53" t="s">
         <v>25</v>
       </c>
       <c r="T53" t="n">
-        <v>0.3377410897811987</v>
+        <v>0.2601697185578756</v>
       </c>
       <c r="U53" t="n">
-        <v>37.77517543622552</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V53" t="n">
-        <v>460</v>
+        <v>10000</v>
       </c>
       <c r="W53" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="X53" t="n">
-        <v>533.4</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4418,67 +4358,67 @@
         <v>-1</v>
       </c>
       <c r="B54" t="n">
-        <v>423.7298755186722</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C54" t="n">
         <v>-1</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9165708446760181</v>
+        <v>0.9717862435005938</v>
       </c>
       <c r="E54" t="n">
-        <v>2.09</v>
+        <v>6.02</v>
       </c>
       <c r="F54" t="n">
-        <v>5.95</v>
+        <v>79.7</v>
       </c>
       <c r="G54" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H54" t="n">
-        <v>6.65</v>
+        <v>89.84999999999999</v>
       </c>
       <c r="I54" t="n">
-        <v>545</v>
+        <v>11760.2</v>
       </c>
       <c r="J54" t="n">
-        <v>0.302109805849015</v>
+        <v>0.117955156416107</v>
       </c>
       <c r="K54" t="s"/>
       <c r="L54" t="s"/>
       <c r="M54" t="s"/>
       <c r="N54" t="n">
-        <v>356.1</v>
+        <v>9952.049999999999</v>
       </c>
       <c r="O54" t="n">
-        <v>1500</v>
+        <v>75</v>
       </c>
       <c r="P54" t="n">
-        <v>140617.5</v>
+        <v>93041.337</v>
       </c>
       <c r="Q54" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="R54" t="n">
-        <v>0.9165708446760181</v>
+        <v>0.9717862435005938</v>
       </c>
       <c r="S54" t="s">
         <v>25</v>
       </c>
       <c r="T54" t="n">
-        <v>0.458362907560198</v>
+        <v>0.2807957863354369</v>
       </c>
       <c r="U54" t="n">
-        <v>37.77517543622552</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V54" t="n">
-        <v>470</v>
+        <v>10100</v>
       </c>
       <c r="W54" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="X54" t="n">
-        <v>533.4</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4486,31 +4426,31 @@
         <v>-1</v>
       </c>
       <c r="B55" t="n">
-        <v>10758.34958506224</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C55" t="n">
         <v>-1</v>
       </c>
       <c r="D55" t="n">
-        <v>0.9919899980239848</v>
+        <v>0.9563476298262896</v>
       </c>
       <c r="E55" t="n">
-        <v>1.02</v>
+        <v>9.92</v>
       </c>
       <c r="F55" t="n">
-        <v>40.7</v>
+        <v>91.45</v>
       </c>
       <c r="G55" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H55" t="n">
-        <v>46.95</v>
+        <v>102.8</v>
       </c>
       <c r="I55" t="n">
         <v>11760.2</v>
       </c>
       <c r="J55" t="n">
-        <v>0.1072309920667721</v>
+        <v>0.117955156416107</v>
       </c>
       <c r="K55" t="s"/>
       <c r="L55" t="s"/>
@@ -4522,31 +4462,31 @@
         <v>75</v>
       </c>
       <c r="P55" t="n">
-        <v>82162.16250000001</v>
+        <v>93041.337</v>
       </c>
       <c r="Q55" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="R55" t="n">
-        <v>0.9919899980239848</v>
+        <v>0.9563476298262896</v>
       </c>
       <c r="S55" t="s">
         <v>25</v>
       </c>
       <c r="T55" t="n">
-        <v>0.2769242144483759</v>
+        <v>0.3212666314444398</v>
       </c>
       <c r="U55" t="n">
-        <v>382.8866818807538</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V55" t="n">
-        <v>10100</v>
+        <v>10200</v>
       </c>
       <c r="W55" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="X55" t="n">
-        <v>10905.2</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4554,31 +4494,31 @@
         <v>-1</v>
       </c>
       <c r="B56" t="n">
-        <v>10758.34958506224</v>
+        <v>10756.53520833333</v>
       </c>
       <c r="C56" t="n">
         <v>-1</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9833056819308246</v>
+        <v>0.9349606363460556</v>
       </c>
       <c r="E56" t="n">
-        <v>2.32</v>
+        <v>15.8</v>
       </c>
       <c r="F56" t="n">
-        <v>50.5</v>
+        <v>107.3</v>
       </c>
       <c r="G56" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H56" t="n">
-        <v>57.75</v>
+        <v>120.25</v>
       </c>
       <c r="I56" t="n">
         <v>11760.2</v>
       </c>
       <c r="J56" t="n">
-        <v>0.1072309920667721</v>
+        <v>0.117955156416107</v>
       </c>
       <c r="K56" t="s"/>
       <c r="L56" t="s"/>
@@ -4590,31 +4530,31 @@
         <v>75</v>
       </c>
       <c r="P56" t="n">
-        <v>82162.16250000001</v>
+        <v>93041.337</v>
       </c>
       <c r="Q56" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="R56" t="n">
-        <v>0.9833056819308246</v>
+        <v>0.9349606363460556</v>
       </c>
       <c r="S56" t="s">
         <v>25</v>
       </c>
       <c r="T56" t="n">
-        <v>0.3406256311904943</v>
+        <v>0.3758007045835982</v>
       </c>
       <c r="U56" t="n">
-        <v>382.8866818807538</v>
+        <v>382.7939638096757</v>
       </c>
       <c r="V56" t="n">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="W56" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="X56" t="n">
-        <v>10905.2</v>
+        <v>10961.85</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4622,67 +4562,67 @@
         <v>-1</v>
       </c>
       <c r="B57" t="n">
-        <v>10758.34958506224</v>
+        <v>88.79770833333332</v>
       </c>
       <c r="C57" t="n">
         <v>-1</v>
       </c>
       <c r="D57" t="n">
-        <v>0.967773986265514</v>
+        <v>0.8815863334064644</v>
       </c>
       <c r="E57" t="n">
-        <v>4.88</v>
+        <v>1.36</v>
       </c>
       <c r="F57" t="n">
-        <v>63</v>
+        <v>1.15</v>
       </c>
       <c r="G57" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H57" t="n">
-        <v>71.5</v>
+        <v>1.5</v>
       </c>
       <c r="I57" t="n">
-        <v>11760.2</v>
+        <v>119.8</v>
       </c>
       <c r="J57" t="n">
-        <v>0.1072309920667721</v>
+        <v>0.4847032642821281</v>
       </c>
       <c r="K57" t="s"/>
       <c r="L57" t="s"/>
       <c r="M57" t="s"/>
       <c r="N57" t="n">
-        <v>9952.049999999999</v>
+        <v>67.5</v>
       </c>
       <c r="O57" t="n">
-        <v>75</v>
+        <v>6200</v>
       </c>
       <c r="P57" t="n">
-        <v>82162.16250000001</v>
+        <v>131368.7</v>
       </c>
       <c r="Q57" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="R57" t="n">
-        <v>0.967773986265514</v>
+        <v>0.8815863334064644</v>
       </c>
       <c r="S57" t="s">
         <v>25</v>
       </c>
       <c r="T57" t="n">
-        <v>0.4217269719501357</v>
+        <v>0.2744594763850492</v>
       </c>
       <c r="U57" t="n">
-        <v>382.8866818807538</v>
+        <v>11.42416868594518</v>
       </c>
       <c r="V57" t="n">
-        <v>10300</v>
+        <v>85</v>
       </c>
       <c r="W57" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="X57" t="n">
-        <v>10905.2</v>
+        <v>105.1</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -4690,67 +4630,67 @@
         <v>-1</v>
       </c>
       <c r="B58" t="n">
-        <v>88.99004149377593</v>
+        <v>678.29375</v>
       </c>
       <c r="C58" t="n">
         <v>-1</v>
       </c>
       <c r="D58" t="n">
-        <v>0.9129455892951022</v>
+        <v>0.8317818170520589</v>
       </c>
       <c r="E58" t="n">
-        <v>0.74</v>
+        <v>8.91</v>
       </c>
       <c r="F58" t="n">
-        <v>0.85</v>
+        <v>8.4</v>
       </c>
       <c r="G58" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H58" t="n">
-        <v>0.95</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="I58" t="n">
-        <v>122.4</v>
+        <v>780.65</v>
       </c>
       <c r="J58" t="n">
-        <v>0.4941633806425201</v>
+        <v>0.3112201796338835</v>
       </c>
       <c r="K58" t="s"/>
       <c r="L58" t="s"/>
       <c r="M58" t="s"/>
       <c r="N58" t="n">
-        <v>67.5</v>
+        <v>564.05</v>
       </c>
       <c r="O58" t="n">
-        <v>6200</v>
+        <v>1200</v>
       </c>
       <c r="P58" t="n">
-        <v>117124.2</v>
+        <v>151067.304</v>
       </c>
       <c r="Q58" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="R58" t="n">
-        <v>0.9129455892951022</v>
+        <v>0.8317818170520589</v>
       </c>
       <c r="S58" t="s">
         <v>25</v>
       </c>
       <c r="T58" t="n">
-        <v>0.3249410586237647</v>
+        <v>0.3064227686122044</v>
       </c>
       <c r="U58" t="n">
-        <v>11.70429064490253</v>
+        <v>44.16557202849485</v>
       </c>
       <c r="V58" t="n">
-        <v>87.5</v>
+        <v>640</v>
       </c>
       <c r="W58" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="X58" t="n">
-        <v>107</v>
+        <v>713.9</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4758,73 +4698,67 @@
         <v>-1</v>
       </c>
       <c r="B59" t="n">
-        <v>16551.08381742738</v>
+        <v>245.94125</v>
       </c>
       <c r="C59" t="n">
         <v>-1</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9282077809185131</v>
+        <v>0.8742832894693175</v>
       </c>
       <c r="E59" t="n">
-        <v>43.33</v>
+        <v>2.75</v>
       </c>
       <c r="F59" t="n">
-        <v>118.4</v>
+        <v>2.7</v>
       </c>
       <c r="G59" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H59" t="n">
-        <v>133.55</v>
+        <v>3.1</v>
       </c>
       <c r="I59" t="n">
-        <v>19290</v>
+        <v>290.45</v>
       </c>
       <c r="J59" t="n">
-        <v>0.2526696451731994</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-0.125828698099007</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0.328919514676461</v>
-      </c>
-      <c r="M59" t="n">
-        <v>112.2088094302786</v>
-      </c>
+        <v>0.3771169688146658</v>
+      </c>
+      <c r="K59" t="s"/>
+      <c r="L59" t="s"/>
+      <c r="M59" t="s"/>
       <c r="N59" t="n">
-        <v>13100</v>
+        <v>211.9</v>
       </c>
       <c r="O59" t="n">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="P59" t="n">
-        <v>139799</v>
+        <v>141122.55</v>
       </c>
       <c r="Q59" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="R59" t="n">
-        <v>0.9282077809185131</v>
+        <v>0.8742832894693175</v>
       </c>
       <c r="S59" t="s">
         <v>25</v>
       </c>
       <c r="T59" t="n">
-        <v>0.3086354199738416</v>
+        <v>0.2554898888617348</v>
       </c>
       <c r="U59" t="n">
-        <v>941.5586978524545</v>
+        <v>15.87013201281472</v>
       </c>
       <c r="V59" t="n">
-        <v>14250</v>
+        <v>220</v>
       </c>
       <c r="W59" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="X59" t="n">
-        <v>15914.7</v>
+        <v>258.55</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -4832,73 +4766,67 @@
         <v>-1</v>
       </c>
       <c r="B60" t="n">
-        <v>16551.08381742738</v>
+        <v>245.94125</v>
       </c>
       <c r="C60" t="n">
         <v>-1</v>
       </c>
       <c r="D60" t="n">
-        <v>0.8947148162824208</v>
+        <v>0.8071808043326507</v>
       </c>
       <c r="E60" t="n">
-        <v>68.56999999999999</v>
+        <v>4.72</v>
       </c>
       <c r="F60" t="n">
-        <v>161.15</v>
+        <v>4.65</v>
       </c>
       <c r="G60" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H60" t="n">
-        <v>180.55</v>
+        <v>5.25</v>
       </c>
       <c r="I60" t="n">
-        <v>19290</v>
+        <v>290.45</v>
       </c>
       <c r="J60" t="n">
-        <v>0.2526696451731994</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-0.1621596712897337</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0.3285090100052869</v>
-      </c>
-      <c r="M60" t="n">
-        <v>153.733139594644</v>
-      </c>
+        <v>0.3771169688146658</v>
+      </c>
+      <c r="K60" t="s"/>
+      <c r="L60" t="s"/>
+      <c r="M60" t="s"/>
       <c r="N60" t="n">
-        <v>13100</v>
+        <v>211.9</v>
       </c>
       <c r="O60" t="n">
-        <v>50</v>
+        <v>3000</v>
       </c>
       <c r="P60" t="n">
-        <v>139799</v>
+        <v>141122.55</v>
       </c>
       <c r="Q60" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="R60" t="n">
-        <v>0.8947148162824208</v>
+        <v>0.8071808043326507</v>
       </c>
       <c r="S60" t="s">
         <v>25</v>
       </c>
       <c r="T60" t="n">
-        <v>0.4172529021061557</v>
+        <v>0.4326844892013251</v>
       </c>
       <c r="U60" t="n">
-        <v>941.5586978524545</v>
+        <v>15.87013201281472</v>
       </c>
       <c r="V60" t="n">
-        <v>14500</v>
+        <v>230</v>
       </c>
       <c r="W60" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
       <c r="X60" t="n">
-        <v>15914.7</v>
+        <v>258.55</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -4906,67 +4834,67 @@
         <v>-1</v>
       </c>
       <c r="B61" t="n">
-        <v>246.2408713692946</v>
+        <v>297.25</v>
       </c>
       <c r="C61" t="n">
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9370094726640867</v>
+        <v>0.9506986346476265</v>
       </c>
       <c r="E61" t="n">
-        <v>0.78</v>
+        <v>0.91</v>
       </c>
       <c r="F61" t="n">
-        <v>1.65</v>
+        <v>3.6</v>
       </c>
       <c r="G61" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H61" t="n">
-        <v>1.85</v>
+        <v>4.05</v>
       </c>
       <c r="I61" t="n">
-        <v>297.4</v>
+        <v>347.5</v>
       </c>
       <c r="J61" t="n">
-        <v>0.3225576954040902</v>
+        <v>0.2967179672383258</v>
       </c>
       <c r="K61" t="s"/>
       <c r="L61" t="s"/>
       <c r="M61" t="s"/>
       <c r="N61" t="n">
-        <v>211.9</v>
+        <v>253.6</v>
       </c>
       <c r="O61" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="P61" t="n">
-        <v>137955</v>
+        <v>149392.44</v>
       </c>
       <c r="Q61" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="R61" t="n">
-        <v>0.9370094726640867</v>
+        <v>0.9506986346476265</v>
       </c>
       <c r="S61" t="s">
         <v>25</v>
       </c>
       <c r="T61" t="n">
-        <v>0.2599509873620997</v>
+        <v>0.2522463138542507</v>
       </c>
       <c r="U61" t="n">
-        <v>16.28285633554614</v>
+        <v>24.81104550732731</v>
       </c>
       <c r="V61" t="n">
-        <v>225</v>
+        <v>280</v>
       </c>
       <c r="W61" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="X61" t="n">
-        <v>261.6</v>
+        <v>337.8</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -4974,67 +4902,67 @@
         <v>-1</v>
       </c>
       <c r="B62" t="n">
-        <v>246.2408713692946</v>
+        <v>297.25</v>
       </c>
       <c r="C62" t="n">
         <v>-1</v>
       </c>
       <c r="D62" t="n">
-        <v>0.9068641174704477</v>
+        <v>0.9345180096978613</v>
       </c>
       <c r="E62" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="F62" t="n">
-        <v>2.35</v>
+        <v>4.4</v>
       </c>
       <c r="G62" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H62" t="n">
-        <v>2.65</v>
+        <v>4.9</v>
       </c>
       <c r="I62" t="n">
-        <v>297.4</v>
+        <v>347.5</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3225576954040902</v>
+        <v>0.2967179672383258</v>
       </c>
       <c r="K62" t="s"/>
       <c r="L62" t="s"/>
       <c r="M62" t="s"/>
       <c r="N62" t="n">
-        <v>211.9</v>
+        <v>253.6</v>
       </c>
       <c r="O62" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="P62" t="n">
-        <v>137955</v>
+        <v>149392.44</v>
       </c>
       <c r="Q62" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="R62" t="n">
-        <v>0.9068641174704477</v>
+        <v>0.9345180096978613</v>
       </c>
       <c r="S62" t="s">
         <v>25</v>
       </c>
       <c r="T62" t="n">
-        <v>0.3723622251403049</v>
+        <v>0.3051868982434144</v>
       </c>
       <c r="U62" t="n">
-        <v>16.28285633554614</v>
+        <v>24.81104550732731</v>
       </c>
       <c r="V62" t="n">
-        <v>230</v>
+        <v>285</v>
       </c>
       <c r="W62" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="X62" t="n">
-        <v>261.6</v>
+        <v>337.8</v>
       </c>
     </row>
     <row r="63" spans="1:24">
@@ -5042,271 +4970,67 @@
         <v>-1</v>
       </c>
       <c r="B63" t="n">
-        <v>246.2408713692946</v>
+        <v>297.25</v>
       </c>
       <c r="C63" t="n">
         <v>-1</v>
       </c>
       <c r="D63" t="n">
-        <v>0.868156044334511</v>
+        <v>0.9148772887216532</v>
       </c>
       <c r="E63" t="n">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="F63" t="n">
-        <v>3.2</v>
+        <v>5.35</v>
       </c>
       <c r="G63" t="n">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="H63" t="n">
-        <v>3.6</v>
+        <v>5.95</v>
       </c>
       <c r="I63" t="n">
-        <v>297.4</v>
+        <v>347.5</v>
       </c>
       <c r="J63" t="n">
-        <v>0.3225576954040902</v>
+        <v>0.2967179672383258</v>
       </c>
       <c r="K63" t="s"/>
       <c r="L63" t="s"/>
       <c r="M63" t="s"/>
       <c r="N63" t="n">
-        <v>211.9</v>
+        <v>253.6</v>
       </c>
       <c r="O63" t="n">
-        <v>3000</v>
+        <v>2400</v>
       </c>
       <c r="P63" t="n">
-        <v>137955</v>
+        <v>149392.44</v>
       </c>
       <c r="Q63" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="R63" t="n">
-        <v>0.868156044334511</v>
+        <v>0.9148772887216532</v>
       </c>
       <c r="S63" t="s">
         <v>25</v>
       </c>
       <c r="T63" t="n">
-        <v>0.5058505700019237</v>
+        <v>0.3705840907241459</v>
       </c>
       <c r="U63" t="n">
-        <v>16.28285633554614</v>
+        <v>24.81104550732731</v>
       </c>
       <c r="V63" t="n">
-        <v>235</v>
+        <v>290</v>
       </c>
       <c r="W63" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="X63" t="n">
-        <v>261.6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24">
-      <c r="A64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B64" t="n">
-        <v>297.2120331950208</v>
-      </c>
-      <c r="C64" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.9664367958774776</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="G64" t="n">
-        <v>39</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="I64" t="n">
-        <v>347.5</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.2915448069779156</v>
-      </c>
-      <c r="K64" t="s"/>
-      <c r="L64" t="s"/>
-      <c r="M64" t="s"/>
-      <c r="N64" t="n">
-        <v>253.6</v>
-      </c>
-      <c r="O64" t="n">
-        <v>2400</v>
-      </c>
-      <c r="P64" t="n">
-        <v>141402</v>
-      </c>
-      <c r="Q64" t="s">
-        <v>116</v>
-      </c>
-      <c r="R64" t="n">
-        <v>0.9664367958774776</v>
-      </c>
-      <c r="S64" t="s">
-        <v>25</v>
-      </c>
-      <c r="T64" t="n">
-        <v>0.2686938385160476</v>
-      </c>
-      <c r="U64" t="n">
-        <v>24.66299368876058</v>
-      </c>
-      <c r="V64" t="n">
-        <v>285</v>
-      </c>
-      <c r="W64" t="s">
-        <v>117</v>
-      </c>
-      <c r="X64" t="n">
-        <v>335.4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B65" t="n">
-        <v>297.2120331950208</v>
-      </c>
-      <c r="C65" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.9503576512851006</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="G65" t="n">
-        <v>39</v>
-      </c>
-      <c r="H65" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="I65" t="n">
-        <v>347.5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.2915448069779156</v>
-      </c>
-      <c r="K65" t="s"/>
-      <c r="L65" t="s"/>
-      <c r="M65" t="s"/>
-      <c r="N65" t="n">
-        <v>253.6</v>
-      </c>
-      <c r="O65" t="n">
-        <v>2400</v>
-      </c>
-      <c r="P65" t="n">
-        <v>141402</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>118</v>
-      </c>
-      <c r="R65" t="n">
-        <v>0.9503576512851006</v>
-      </c>
-      <c r="S65" t="s">
-        <v>25</v>
-      </c>
-      <c r="T65" t="n">
-        <v>0.3454635066634897</v>
-      </c>
-      <c r="U65" t="n">
-        <v>24.66299368876058</v>
-      </c>
-      <c r="V65" t="n">
-        <v>290</v>
-      </c>
-      <c r="W65" t="s">
-        <v>117</v>
-      </c>
-      <c r="X65" t="n">
-        <v>335.4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="B66" t="n">
-        <v>297.2120331950208</v>
-      </c>
-      <c r="C66" t="n">
-        <v>-1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9290775934237376</v>
-      </c>
-      <c r="E66" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="F66" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="G66" t="n">
-        <v>39</v>
-      </c>
-      <c r="H66" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="I66" t="n">
-        <v>347.5</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.2915448069779156</v>
-      </c>
-      <c r="K66" t="s"/>
-      <c r="L66" t="s"/>
-      <c r="M66" t="s"/>
-      <c r="N66" t="n">
-        <v>253.6</v>
-      </c>
-      <c r="O66" t="n">
-        <v>2400</v>
-      </c>
-      <c r="P66" t="n">
-        <v>141402</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>119</v>
-      </c>
-      <c r="R66" t="n">
-        <v>0.9290775934237376</v>
-      </c>
-      <c r="S66" t="s">
-        <v>25</v>
-      </c>
-      <c r="T66" t="n">
-        <v>0.444167365710201</v>
-      </c>
-      <c r="U66" t="n">
-        <v>24.66299368876058</v>
-      </c>
-      <c r="V66" t="n">
-        <v>295</v>
-      </c>
-      <c r="W66" t="s">
-        <v>117</v>
-      </c>
-      <c r="X66" t="n">
-        <v>335.4</v>
+        <v>337.8</v>
       </c>
     </row>
   </sheetData>
